--- a/Median_PGDP_Level.xlsx
+++ b/Median_PGDP_Level.xlsx
@@ -7,7 +7,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Mean_Level" sheetId="1" r:id="rId1"/>
+    <sheet name="Median_Level" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
@@ -297,19 +297,19 @@
         <v>122.0000</v>
       </c>
       <c r="D2" s="4">
-        <v>123.3253</v>
+        <v>123.0000</v>
       </c>
       <c r="E2" s="4">
-        <v>124.2892</v>
+        <v>124.0000</v>
       </c>
       <c r="F2" s="4">
-        <v>125.1687</v>
+        <v>125.0000</v>
       </c>
       <c r="G2" s="4">
-        <v>126.0120</v>
+        <v>126.0000</v>
       </c>
       <c r="H2" s="4">
-        <v>126.8675</v>
+        <v>127.0000</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>10</v>
@@ -326,19 +326,19 @@
         <v>1.0000</v>
       </c>
       <c r="C3" s="4">
-        <v>123.5410</v>
+        <v>124.0000</v>
       </c>
       <c r="D3" s="4">
-        <v>124.7213</v>
+        <v>125.0000</v>
       </c>
       <c r="E3" s="4">
-        <v>125.5246</v>
+        <v>126.0000</v>
       </c>
       <c r="F3" s="4">
-        <v>126.4590</v>
+        <v>127.0000</v>
       </c>
       <c r="G3" s="4">
-        <v>127.2787</v>
+        <v>127.0000</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>10</v>
@@ -361,16 +361,16 @@
         <v>125.0000</v>
       </c>
       <c r="D4" s="4">
-        <v>125.9298</v>
+        <v>126.0000</v>
       </c>
       <c r="E4" s="4">
-        <v>126.9825</v>
+        <v>127.0000</v>
       </c>
       <c r="F4" s="4">
-        <v>127.8070</v>
+        <v>128.0000</v>
       </c>
       <c r="G4" s="4">
-        <v>128.6429</v>
+        <v>129.0000</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
@@ -393,16 +393,16 @@
         <v>127.0000</v>
       </c>
       <c r="D5" s="4">
-        <v>128.4828</v>
+        <v>129.0000</v>
       </c>
       <c r="E5" s="4">
-        <v>129.5862</v>
+        <v>130.0000</v>
       </c>
       <c r="F5" s="4">
-        <v>130.6379</v>
+        <v>131.0000</v>
       </c>
       <c r="G5" s="4">
-        <v>131.5172</v>
+        <v>132.0000</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>10</v>
@@ -422,22 +422,22 @@
         <v>4.0000</v>
       </c>
       <c r="C6" s="4">
-        <v>129.0175</v>
+        <v>129.0000</v>
       </c>
       <c r="D6" s="4">
-        <v>130.5263</v>
+        <v>131.0000</v>
       </c>
       <c r="E6" s="4">
-        <v>131.8421</v>
+        <v>132.0000</v>
       </c>
       <c r="F6" s="4">
-        <v>133.0351</v>
+        <v>133.0000</v>
       </c>
       <c r="G6" s="4">
-        <v>134.1930</v>
+        <v>134.0000</v>
       </c>
       <c r="H6" s="4">
-        <v>135.2632</v>
+        <v>135.0000</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>10</v>
@@ -454,19 +454,19 @@
         <v>1.0000</v>
       </c>
       <c r="C7" s="4">
-        <v>130.6897</v>
+        <v>131.0000</v>
       </c>
       <c r="D7" s="4">
-        <v>132.0517</v>
+        <v>132.0000</v>
       </c>
       <c r="E7" s="4">
-        <v>133.2414</v>
+        <v>133.0000</v>
       </c>
       <c r="F7" s="4">
-        <v>134.4310</v>
+        <v>134.0000</v>
       </c>
       <c r="G7" s="4">
-        <v>135.4655</v>
+        <v>135.0000</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>10</v>
@@ -486,22 +486,22 @@
         <v>2.0000</v>
       </c>
       <c r="C8" s="4">
-        <v>132.0833</v>
+        <v>132.0000</v>
       </c>
       <c r="D8" s="4">
-        <v>133.6667</v>
+        <v>134.0000</v>
       </c>
       <c r="E8" s="4">
-        <v>135.0625</v>
+        <v>135.0000</v>
       </c>
       <c r="F8" s="4">
-        <v>136.3542</v>
+        <v>136.0000</v>
       </c>
       <c r="G8" s="4">
-        <v>137.5000</v>
+        <v>137.0000</v>
       </c>
       <c r="H8" s="4">
-        <v>138.6458</v>
+        <v>138.0000</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>10</v>
@@ -521,19 +521,19 @@
         <v>134.0000</v>
       </c>
       <c r="D9" s="4">
-        <v>135.0909</v>
+        <v>135.0000</v>
       </c>
       <c r="E9" s="4">
-        <v>136.2909</v>
+        <v>136.0000</v>
       </c>
       <c r="F9" s="4">
-        <v>137.4074</v>
+        <v>137.5000</v>
       </c>
       <c r="G9" s="4">
-        <v>138.4630</v>
+        <v>139.0000</v>
       </c>
       <c r="H9" s="4">
-        <v>139.5094</v>
+        <v>140.0000</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>10</v>
@@ -550,22 +550,22 @@
         <v>4.0000</v>
       </c>
       <c r="C10" s="4">
-        <v>135.5300</v>
+        <v>135.5000</v>
       </c>
       <c r="D10" s="4">
-        <v>136.8557</v>
+        <v>136.9500</v>
       </c>
       <c r="E10" s="4">
-        <v>138.1000</v>
+        <v>138.2000</v>
       </c>
       <c r="F10" s="4">
-        <v>139.2971</v>
+        <v>139.5000</v>
       </c>
       <c r="G10" s="4">
-        <v>140.4957</v>
+        <v>140.6000</v>
       </c>
       <c r="H10" s="4">
-        <v>141.6343</v>
+        <v>141.8000</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>10</v>
@@ -582,22 +582,22 @@
         <v>1.0000</v>
       </c>
       <c r="C11" s="4">
-        <v>137.3566</v>
+        <v>137.4000</v>
       </c>
       <c r="D11" s="4">
-        <v>138.7132</v>
+        <v>138.8000</v>
       </c>
       <c r="E11" s="4">
-        <v>139.9830</v>
+        <v>140.0000</v>
       </c>
       <c r="F11" s="4">
-        <v>141.3113</v>
+        <v>141.3000</v>
       </c>
       <c r="G11" s="4">
-        <v>142.5057</v>
+        <v>142.5000</v>
       </c>
       <c r="H11" s="4">
-        <v>143.6396</v>
+        <v>143.7000</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>10</v>
@@ -614,22 +614,22 @@
         <v>2.0000</v>
       </c>
       <c r="C12" s="4">
-        <v>139.1804</v>
+        <v>139.2000</v>
       </c>
       <c r="D12" s="4">
-        <v>140.5054</v>
+        <v>140.5000</v>
       </c>
       <c r="E12" s="4">
-        <v>141.8196</v>
+        <v>141.9000</v>
       </c>
       <c r="F12" s="4">
-        <v>143.0018</v>
+        <v>143.0000</v>
       </c>
       <c r="G12" s="4">
-        <v>144.3268</v>
+        <v>144.2000</v>
       </c>
       <c r="H12" s="4">
-        <v>145.5143</v>
+        <v>145.3000</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>10</v>
@@ -646,22 +646,22 @@
         <v>3.0000</v>
       </c>
       <c r="C13" s="4">
-        <v>142.5887</v>
+        <v>142.6000</v>
       </c>
       <c r="D13" s="4">
-        <v>143.5408</v>
+        <v>143.5000</v>
       </c>
       <c r="E13" s="4">
-        <v>144.7127</v>
+        <v>144.8000</v>
       </c>
       <c r="F13" s="4">
-        <v>145.8648</v>
+        <v>145.7000</v>
       </c>
       <c r="G13" s="4">
-        <v>147.0243</v>
+        <v>147.0000</v>
       </c>
       <c r="H13" s="4">
-        <v>148.2043</v>
+        <v>148.0000</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>10</v>
@@ -678,22 +678,22 @@
         <v>4.0000</v>
       </c>
       <c r="C14" s="4">
-        <v>142.2776</v>
+        <v>142.3000</v>
       </c>
       <c r="D14" s="4">
-        <v>143.3526</v>
+        <v>143.3000</v>
       </c>
       <c r="E14" s="4">
-        <v>144.5329</v>
+        <v>144.5000</v>
       </c>
       <c r="F14" s="4">
-        <v>145.7632</v>
+        <v>145.7000</v>
       </c>
       <c r="G14" s="4">
-        <v>146.9750</v>
+        <v>146.9000</v>
       </c>
       <c r="H14" s="4">
-        <v>148.1579</v>
+        <v>148.2000</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>10</v>
@@ -710,22 +710,22 @@
         <v>1.0000</v>
       </c>
       <c r="C15" s="4">
-        <v>142.7182</v>
+        <v>142.7000</v>
       </c>
       <c r="D15" s="4">
-        <v>144.0818</v>
+        <v>144.1000</v>
       </c>
       <c r="E15" s="4">
-        <v>145.2955</v>
+        <v>145.3000</v>
       </c>
       <c r="F15" s="4">
-        <v>146.4879</v>
+        <v>146.5000</v>
       </c>
       <c r="G15" s="4">
-        <v>147.7500</v>
+        <v>147.8000</v>
       </c>
       <c r="H15" s="4">
-        <v>149.1081</v>
+        <v>149.2000</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>10</v>
@@ -742,22 +742,22 @@
         <v>2.0000</v>
       </c>
       <c r="C16" s="4">
-        <v>144.9603</v>
+        <v>145.0000</v>
       </c>
       <c r="D16" s="4">
-        <v>146.2397</v>
+        <v>146.2000</v>
       </c>
       <c r="E16" s="4">
-        <v>147.4721</v>
+        <v>147.4000</v>
       </c>
       <c r="F16" s="4">
-        <v>148.7279</v>
+        <v>148.6000</v>
       </c>
       <c r="G16" s="4">
-        <v>150.0735</v>
+        <v>150.0000</v>
       </c>
       <c r="H16" s="4">
-        <v>151.3588</v>
+        <v>151.1500</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>10</v>
@@ -774,22 +774,22 @@
         <v>3.0000</v>
       </c>
       <c r="C17" s="4">
-        <v>145.5258</v>
+        <v>145.4000</v>
       </c>
       <c r="D17" s="4">
-        <v>146.8000</v>
+        <v>146.7000</v>
       </c>
       <c r="E17" s="4">
-        <v>148.0806</v>
+        <v>147.9500</v>
       </c>
       <c r="F17" s="4">
-        <v>149.4790</v>
+        <v>149.3000</v>
       </c>
       <c r="G17" s="4">
-        <v>150.7484</v>
+        <v>150.6000</v>
       </c>
       <c r="H17" s="4">
-        <v>152.0803</v>
+        <v>152.0000</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>10</v>
@@ -806,22 +806,22 @@
         <v>4.0000</v>
       </c>
       <c r="C18" s="4">
-        <v>146.2129</v>
+        <v>146.2000</v>
       </c>
       <c r="D18" s="4">
-        <v>147.3129</v>
+        <v>147.3000</v>
       </c>
       <c r="E18" s="4">
-        <v>148.6968</v>
+        <v>148.8000</v>
       </c>
       <c r="F18" s="4">
-        <v>149.8968</v>
+        <v>150.0000</v>
       </c>
       <c r="G18" s="4">
-        <v>151.2065</v>
+        <v>151.3000</v>
       </c>
       <c r="H18" s="4">
-        <v>152.5226</v>
+        <v>152.7500</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>10</v>
@@ -838,22 +838,22 @@
         <v>1.0000</v>
       </c>
       <c r="C19" s="4">
-        <v>147.2067</v>
+        <v>147.2000</v>
       </c>
       <c r="D19" s="4">
-        <v>148.8450</v>
+        <v>148.9000</v>
       </c>
       <c r="E19" s="4">
-        <v>150.1850</v>
+        <v>150.2000</v>
       </c>
       <c r="F19" s="4">
-        <v>151.5433</v>
+        <v>151.6000</v>
       </c>
       <c r="G19" s="4">
-        <v>152.8817</v>
+        <v>153.0000</v>
       </c>
       <c r="H19" s="4">
-        <v>154.3317</v>
+        <v>154.5000</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>10</v>
@@ -870,22 +870,22 @@
         <v>2.0000</v>
       </c>
       <c r="C20" s="4">
-        <v>149.3919</v>
+        <v>149.4000</v>
       </c>
       <c r="D20" s="4">
-        <v>151.2079</v>
+        <v>151.1000</v>
       </c>
       <c r="E20" s="4">
-        <v>152.8317</v>
+        <v>152.7000</v>
       </c>
       <c r="F20" s="4">
-        <v>154.3984</v>
+        <v>154.0000</v>
       </c>
       <c r="G20" s="4">
-        <v>155.9238</v>
+        <v>155.5000</v>
       </c>
       <c r="H20" s="4">
-        <v>157.1746</v>
+        <v>156.8000</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>10</v>
@@ -902,22 +902,22 @@
         <v>3.0000</v>
       </c>
       <c r="C21" s="4">
-        <v>154.3905</v>
+        <v>154.4000</v>
       </c>
       <c r="D21" s="4">
-        <v>156.4548</v>
+        <v>156.1000</v>
       </c>
       <c r="E21" s="4">
-        <v>158.3238</v>
+        <v>158.0000</v>
       </c>
       <c r="F21" s="4">
-        <v>159.9405</v>
+        <v>159.5500</v>
       </c>
       <c r="G21" s="4">
-        <v>161.5756</v>
+        <v>161.1000</v>
       </c>
       <c r="H21" s="4">
-        <v>162.9195</v>
+        <v>162.5000</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>10</v>
@@ -934,22 +934,22 @@
         <v>4.0000</v>
       </c>
       <c r="C22" s="4">
-        <v>155.1268</v>
+        <v>155.1000</v>
       </c>
       <c r="D22" s="4">
-        <v>157.4768</v>
+        <v>157.5000</v>
       </c>
       <c r="E22" s="4">
-        <v>159.7536</v>
+        <v>159.8000</v>
       </c>
       <c r="F22" s="4">
-        <v>161.9321</v>
+        <v>162.0000</v>
       </c>
       <c r="G22" s="4">
-        <v>163.8982</v>
+        <v>164.0000</v>
       </c>
       <c r="H22" s="4">
-        <v>165.8143</v>
+        <v>165.9500</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>10</v>
@@ -966,22 +966,22 @@
         <v>1.0000</v>
       </c>
       <c r="C23" s="4">
-        <v>157.9951</v>
+        <v>158.0000</v>
       </c>
       <c r="D23" s="4">
-        <v>160.9098</v>
+        <v>161.0000</v>
       </c>
       <c r="E23" s="4">
-        <v>163.6656</v>
+        <v>163.6000</v>
       </c>
       <c r="F23" s="4">
-        <v>166.1377</v>
+        <v>166.0000</v>
       </c>
       <c r="G23" s="4">
-        <v>168.2639</v>
+        <v>168.0000</v>
       </c>
       <c r="H23" s="4">
-        <v>170.0421</v>
+        <v>170.1000</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>10</v>
@@ -998,22 +998,22 @@
         <v>2.0000</v>
       </c>
       <c r="C24" s="4">
-        <v>162.5106</v>
+        <v>162.5000</v>
       </c>
       <c r="D24" s="4">
-        <v>165.7851</v>
+        <v>165.7000</v>
       </c>
       <c r="E24" s="4">
-        <v>168.6128</v>
+        <v>168.4000</v>
       </c>
       <c r="F24" s="4">
-        <v>171.1085</v>
+        <v>171.0000</v>
       </c>
       <c r="G24" s="4">
-        <v>173.4872</v>
+        <v>173.5000</v>
       </c>
       <c r="H24" s="4">
-        <v>175.6667</v>
+        <v>175.0000</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>10</v>
@@ -1030,19 +1030,19 @@
         <v>3.0000</v>
       </c>
       <c r="C25" s="4">
-        <v>167.0685</v>
+        <v>167.1000</v>
       </c>
       <c r="D25" s="4">
-        <v>170.5815</v>
+        <v>170.5000</v>
       </c>
       <c r="E25" s="4">
-        <v>173.8407</v>
+        <v>173.8500</v>
       </c>
       <c r="F25" s="4">
-        <v>176.7093</v>
+        <v>176.7000</v>
       </c>
       <c r="G25" s="4">
-        <v>179.5204</v>
+        <v>179.7500</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>10</v>
@@ -1062,22 +1062,22 @@
         <v>4.0000</v>
       </c>
       <c r="C26" s="4">
-        <v>172.0481</v>
+        <v>172.0000</v>
       </c>
       <c r="D26" s="4">
-        <v>176.3288</v>
+        <v>176.4000</v>
       </c>
       <c r="E26" s="4">
-        <v>180.0327</v>
+        <v>180.2500</v>
       </c>
       <c r="F26" s="4">
-        <v>183.3712</v>
+        <v>183.7000</v>
       </c>
       <c r="G26" s="4">
-        <v>186.4269</v>
+        <v>186.9500</v>
       </c>
       <c r="H26" s="4">
-        <v>189.2923</v>
+        <v>189.9500</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>10</v>
@@ -1094,22 +1094,22 @@
         <v>1.0000</v>
       </c>
       <c r="C27" s="4">
-        <v>177.6911</v>
+        <v>177.7000</v>
       </c>
       <c r="D27" s="4">
-        <v>181.7000</v>
+        <v>181.6000</v>
       </c>
       <c r="E27" s="4">
-        <v>185.3244</v>
+        <v>185.3000</v>
       </c>
       <c r="F27" s="4">
-        <v>188.5378</v>
+        <v>188.7000</v>
       </c>
       <c r="G27" s="4">
-        <v>191.3378</v>
+        <v>191.8000</v>
       </c>
       <c r="H27" s="4">
-        <v>193.8159</v>
+        <v>194.7500</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>10</v>
@@ -1126,22 +1126,22 @@
         <v>2.0000</v>
       </c>
       <c r="C28" s="4">
-        <v>181.4128</v>
+        <v>181.4000</v>
       </c>
       <c r="D28" s="4">
-        <v>184.1681</v>
+        <v>184.2000</v>
       </c>
       <c r="E28" s="4">
-        <v>187.0191</v>
+        <v>186.9000</v>
       </c>
       <c r="F28" s="4">
-        <v>189.8638</v>
+        <v>189.6000</v>
       </c>
       <c r="G28" s="4">
-        <v>192.5574</v>
+        <v>192.1000</v>
       </c>
       <c r="H28" s="4">
-        <v>195.1106</v>
+        <v>194.5000</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>10</v>
@@ -1158,22 +1158,22 @@
         <v>3.0000</v>
       </c>
       <c r="C29" s="4">
-        <v>183.9231</v>
+        <v>183.9000</v>
       </c>
       <c r="D29" s="4">
-        <v>186.7487</v>
+        <v>186.7000</v>
       </c>
       <c r="E29" s="4">
-        <v>189.4846</v>
+        <v>189.5000</v>
       </c>
       <c r="F29" s="4">
-        <v>192.2205</v>
+        <v>192.0000</v>
       </c>
       <c r="G29" s="4">
-        <v>195.0359</v>
+        <v>194.7000</v>
       </c>
       <c r="H29" s="4">
-        <v>197.8974</v>
+        <v>197.8000</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>10</v>
@@ -1190,22 +1190,22 @@
         <v>4.0000</v>
       </c>
       <c r="C30" s="4">
-        <v>186.1636</v>
+        <v>186.2000</v>
       </c>
       <c r="D30" s="4">
-        <v>189.3023</v>
+        <v>189.2500</v>
       </c>
       <c r="E30" s="4">
-        <v>192.1023</v>
+        <v>192.0000</v>
       </c>
       <c r="F30" s="4">
-        <v>194.9591</v>
+        <v>195.0000</v>
       </c>
       <c r="G30" s="4">
-        <v>197.9227</v>
+        <v>198.0000</v>
       </c>
       <c r="H30" s="4">
-        <v>200.9750</v>
+        <v>201.0000</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>10</v>
@@ -1222,22 +1222,22 @@
         <v>1.0000</v>
       </c>
       <c r="C31" s="4">
-        <v>129.2234</v>
+        <v>129.2000</v>
       </c>
       <c r="D31" s="4">
-        <v>130.9830</v>
+        <v>131.0000</v>
       </c>
       <c r="E31" s="4">
-        <v>133.0404</v>
+        <v>133.0000</v>
       </c>
       <c r="F31" s="4">
-        <v>135.1830</v>
+        <v>135.0000</v>
       </c>
       <c r="G31" s="4">
-        <v>137.4574</v>
+        <v>137.0000</v>
       </c>
       <c r="H31" s="4">
-        <v>139.4830</v>
+        <v>139.1000</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>10</v>
@@ -1254,22 +1254,22 @@
         <v>2.0000</v>
       </c>
       <c r="C32" s="4">
-        <v>130.5396</v>
+        <v>130.5000</v>
       </c>
       <c r="D32" s="4">
-        <v>132.4000</v>
+        <v>132.2000</v>
       </c>
       <c r="E32" s="4">
-        <v>134.4062</v>
+        <v>134.1000</v>
       </c>
       <c r="F32" s="4">
-        <v>136.5354</v>
+        <v>136.1000</v>
       </c>
       <c r="G32" s="4">
-        <v>138.6958</v>
+        <v>138.0500</v>
       </c>
       <c r="H32" s="4">
-        <v>140.9375</v>
+        <v>140.0000</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>10</v>
@@ -1286,22 +1286,22 @@
         <v>3.0000</v>
       </c>
       <c r="C33" s="4">
-        <v>132.7833</v>
+        <v>132.8000</v>
       </c>
       <c r="D33" s="4">
-        <v>134.5500</v>
+        <v>134.6000</v>
       </c>
       <c r="E33" s="4">
-        <v>136.5389</v>
+        <v>136.5500</v>
       </c>
       <c r="F33" s="4">
-        <v>138.4667</v>
+        <v>138.5000</v>
       </c>
       <c r="G33" s="4">
-        <v>140.4583</v>
+        <v>140.5000</v>
       </c>
       <c r="H33" s="4">
-        <v>142.5111</v>
+        <v>142.7500</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>10</v>
@@ -1318,22 +1318,22 @@
         <v>4.0000</v>
       </c>
       <c r="C34" s="4">
-        <v>134.3583</v>
+        <v>134.4000</v>
       </c>
       <c r="D34" s="4">
-        <v>136.2056</v>
+        <v>136.1500</v>
       </c>
       <c r="E34" s="4">
-        <v>138.0500</v>
+        <v>138.1000</v>
       </c>
       <c r="F34" s="4">
-        <v>139.9861</v>
+        <v>139.9500</v>
       </c>
       <c r="G34" s="4">
-        <v>141.8528</v>
+        <v>141.9500</v>
       </c>
       <c r="H34" s="4">
-        <v>143.8556</v>
+        <v>143.9500</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>10</v>
@@ -1350,22 +1350,22 @@
         <v>1.0000</v>
       </c>
       <c r="C35" s="4">
-        <v>136.3132</v>
+        <v>136.4000</v>
       </c>
       <c r="D35" s="4">
-        <v>138.2237</v>
+        <v>138.2000</v>
       </c>
       <c r="E35" s="4">
-        <v>140.0737</v>
+        <v>140.0500</v>
       </c>
       <c r="F35" s="4">
-        <v>141.8421</v>
+        <v>141.9500</v>
       </c>
       <c r="G35" s="4">
-        <v>143.8421</v>
+        <v>144.0500</v>
       </c>
       <c r="H35" s="4">
-        <v>145.7263</v>
+        <v>146.0000</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>10</v>
@@ -1382,22 +1382,22 @@
         <v>2.0000</v>
       </c>
       <c r="C36" s="4">
-        <v>138.0750</v>
+        <v>138.2000</v>
       </c>
       <c r="D36" s="4">
-        <v>140.4825</v>
+        <v>140.4000</v>
       </c>
       <c r="E36" s="4">
-        <v>142.5175</v>
+        <v>142.5000</v>
       </c>
       <c r="F36" s="4">
-        <v>144.8900</v>
+        <v>144.7500</v>
       </c>
       <c r="G36" s="4">
-        <v>147.0175</v>
+        <v>146.9000</v>
       </c>
       <c r="H36" s="4">
-        <v>149.1175</v>
+        <v>149.2000</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>10</v>
@@ -1414,22 +1414,22 @@
         <v>3.0000</v>
       </c>
       <c r="C37" s="4">
-        <v>140.3811</v>
+        <v>140.4000</v>
       </c>
       <c r="D37" s="4">
-        <v>142.5892</v>
+        <v>142.4000</v>
       </c>
       <c r="E37" s="4">
-        <v>144.9676</v>
+        <v>144.7000</v>
       </c>
       <c r="F37" s="4">
-        <v>147.1486</v>
+        <v>146.8000</v>
       </c>
       <c r="G37" s="4">
-        <v>149.4676</v>
+        <v>148.8000</v>
       </c>
       <c r="H37" s="4">
-        <v>151.8108</v>
+        <v>150.8000</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>10</v>
@@ -1446,22 +1446,22 @@
         <v>4.0000</v>
       </c>
       <c r="C38" s="4">
-        <v>142.2953</v>
+        <v>142.3000</v>
       </c>
       <c r="D38" s="4">
-        <v>144.4279</v>
+        <v>144.4000</v>
       </c>
       <c r="E38" s="4">
-        <v>146.5349</v>
+        <v>146.5000</v>
       </c>
       <c r="F38" s="4">
-        <v>148.5256</v>
+        <v>148.6000</v>
       </c>
       <c r="G38" s="4">
-        <v>150.7209</v>
+        <v>150.8000</v>
       </c>
       <c r="H38" s="4">
-        <v>153.0581</v>
+        <v>153.0000</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>10</v>
@@ -1478,22 +1478,22 @@
         <v>1.0000</v>
       </c>
       <c r="C39" s="4">
-        <v>144.2962</v>
+        <v>144.3000</v>
       </c>
       <c r="D39" s="4">
-        <v>146.5885</v>
+        <v>146.5000</v>
       </c>
       <c r="E39" s="4">
-        <v>148.6577</v>
+        <v>148.7500</v>
       </c>
       <c r="F39" s="4">
-        <v>150.8269</v>
+        <v>150.9500</v>
       </c>
       <c r="G39" s="4">
-        <v>153.4538</v>
+        <v>153.2500</v>
       </c>
       <c r="H39" s="4">
-        <v>155.3269</v>
+        <v>155.1500</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>10</v>
@@ -1510,22 +1510,22 @@
         <v>2.0000</v>
       </c>
       <c r="C40" s="4">
-        <v>146.7444</v>
+        <v>146.7000</v>
       </c>
       <c r="D40" s="4">
-        <v>149.1222</v>
+        <v>149.2500</v>
       </c>
       <c r="E40" s="4">
-        <v>151.5083</v>
+        <v>151.6000</v>
       </c>
       <c r="F40" s="4">
-        <v>154.0750</v>
+        <v>154.1000</v>
       </c>
       <c r="G40" s="4">
-        <v>156.5057</v>
+        <v>156.5000</v>
       </c>
       <c r="H40" s="4">
-        <v>159.0086</v>
+        <v>159.0000</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>10</v>
@@ -1542,22 +1542,22 @@
         <v>3.0000</v>
       </c>
       <c r="C41" s="4">
-        <v>150.6741</v>
+        <v>150.7000</v>
       </c>
       <c r="D41" s="4">
-        <v>153.6593</v>
+        <v>153.5000</v>
       </c>
       <c r="E41" s="4">
-        <v>156.8407</v>
+        <v>156.1000</v>
       </c>
       <c r="F41" s="4">
-        <v>160.0519</v>
+        <v>158.6000</v>
       </c>
       <c r="G41" s="4">
-        <v>163.0741</v>
+        <v>161.3000</v>
       </c>
       <c r="H41" s="4">
-        <v>165.7815</v>
+        <v>164.1000</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>10</v>
@@ -1574,22 +1574,22 @@
         <v>4.0000</v>
       </c>
       <c r="C42" s="4">
-        <v>153.6767</v>
+        <v>153.6000</v>
       </c>
       <c r="D42" s="4">
-        <v>156.6100</v>
+        <v>156.5000</v>
       </c>
       <c r="E42" s="4">
-        <v>159.4100</v>
+        <v>159.1500</v>
       </c>
       <c r="F42" s="4">
-        <v>162.3367</v>
+        <v>161.9500</v>
       </c>
       <c r="G42" s="4">
-        <v>165.0767</v>
+        <v>164.7000</v>
       </c>
       <c r="H42" s="4">
-        <v>167.8733</v>
+        <v>167.6000</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>10</v>
@@ -1606,22 +1606,22 @@
         <v>1.0000</v>
       </c>
       <c r="C43" s="4">
-        <v>156.4515</v>
+        <v>156.5000</v>
       </c>
       <c r="D43" s="4">
-        <v>159.6697</v>
+        <v>159.7000</v>
       </c>
       <c r="E43" s="4">
-        <v>162.6909</v>
+        <v>162.7000</v>
       </c>
       <c r="F43" s="4">
-        <v>165.6455</v>
+        <v>165.6000</v>
       </c>
       <c r="G43" s="4">
-        <v>168.5818</v>
+        <v>168.5000</v>
       </c>
       <c r="H43" s="4">
-        <v>171.4667</v>
+        <v>171.4000</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>10</v>
@@ -1638,22 +1638,22 @@
         <v>2.0000</v>
       </c>
       <c r="C44" s="4">
-        <v>159.8781</v>
+        <v>159.9000</v>
       </c>
       <c r="D44" s="4">
-        <v>163.2500</v>
+        <v>163.3500</v>
       </c>
       <c r="E44" s="4">
-        <v>166.5969</v>
+        <v>166.7000</v>
       </c>
       <c r="F44" s="4">
-        <v>169.7375</v>
+        <v>170.0000</v>
       </c>
       <c r="G44" s="4">
-        <v>172.5531</v>
+        <v>173.0500</v>
       </c>
       <c r="H44" s="4">
-        <v>175.9258</v>
+        <v>176.3000</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>10</v>
@@ -1670,22 +1670,22 @@
         <v>3.0000</v>
       </c>
       <c r="C45" s="4">
-        <v>163.9556</v>
+        <v>164.0000</v>
       </c>
       <c r="D45" s="4">
-        <v>167.7189</v>
+        <v>167.6000</v>
       </c>
       <c r="E45" s="4">
-        <v>171.4405</v>
+        <v>171.1000</v>
       </c>
       <c r="F45" s="4">
-        <v>174.9649</v>
+        <v>174.3000</v>
       </c>
       <c r="G45" s="4">
-        <v>178.5054</v>
+        <v>178.0000</v>
       </c>
       <c r="H45" s="4">
-        <v>181.8306</v>
+        <v>181.0500</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>10</v>
@@ -1705,19 +1705,19 @@
         <v>167.1000</v>
       </c>
       <c r="D46" s="4">
-        <v>171.1129</v>
+        <v>171.0000</v>
       </c>
       <c r="E46" s="4">
-        <v>174.3226</v>
+        <v>174.4000</v>
       </c>
       <c r="F46" s="4">
-        <v>177.8774</v>
+        <v>178.0000</v>
       </c>
       <c r="G46" s="4">
-        <v>181.4742</v>
+        <v>181.6000</v>
       </c>
       <c r="H46" s="4">
-        <v>184.7000</v>
+        <v>185.0000</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>10</v>
@@ -1734,22 +1734,22 @@
         <v>1.0000</v>
       </c>
       <c r="C47" s="4">
-        <v>170.9148</v>
+        <v>170.7000</v>
       </c>
       <c r="D47" s="4">
-        <v>174.7926</v>
+        <v>174.8000</v>
       </c>
       <c r="E47" s="4">
-        <v>178.5185</v>
+        <v>178.6000</v>
       </c>
       <c r="F47" s="4">
-        <v>182.3741</v>
+        <v>182.5000</v>
       </c>
       <c r="G47" s="4">
-        <v>186.0556</v>
+        <v>186.0000</v>
       </c>
       <c r="H47" s="4">
-        <v>189.9720</v>
+        <v>190.0000</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>10</v>
@@ -1766,22 +1766,22 @@
         <v>2.0000</v>
       </c>
       <c r="C48" s="4">
-        <v>174.4793</v>
+        <v>174.5000</v>
       </c>
       <c r="D48" s="4">
-        <v>178.5621</v>
+        <v>178.7000</v>
       </c>
       <c r="E48" s="4">
-        <v>182.4759</v>
+        <v>182.9000</v>
       </c>
       <c r="F48" s="4">
-        <v>186.3103</v>
+        <v>186.6000</v>
       </c>
       <c r="G48" s="4">
-        <v>189.9655</v>
+        <v>190.4000</v>
       </c>
       <c r="H48" s="4">
-        <v>193.9607</v>
+        <v>194.5000</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>10</v>
@@ -1798,22 +1798,22 @@
         <v>3.0000</v>
       </c>
       <c r="C49" s="4">
-        <v>178.8458</v>
+        <v>178.9000</v>
       </c>
       <c r="D49" s="4">
-        <v>182.5750</v>
+        <v>182.4500</v>
       </c>
       <c r="E49" s="4">
-        <v>186.3833</v>
+        <v>186.7000</v>
       </c>
       <c r="F49" s="4">
-        <v>189.9250</v>
+        <v>190.5500</v>
       </c>
       <c r="G49" s="4">
-        <v>193.5458</v>
+        <v>194.7000</v>
       </c>
       <c r="H49" s="4">
-        <v>197.1292</v>
+        <v>198.7500</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>10</v>
@@ -1830,22 +1830,22 @@
         <v>4.0000</v>
       </c>
       <c r="C50" s="4">
-        <v>183.0267</v>
+        <v>182.9000</v>
       </c>
       <c r="D50" s="4">
-        <v>187.2567</v>
+        <v>187.2500</v>
       </c>
       <c r="E50" s="4">
-        <v>191.7467</v>
+        <v>191.8500</v>
       </c>
       <c r="F50" s="4">
-        <v>195.7100</v>
+        <v>196.0000</v>
       </c>
       <c r="G50" s="4">
-        <v>199.6800</v>
+        <v>200.1500</v>
       </c>
       <c r="H50" s="4">
-        <v>203.8200</v>
+        <v>204.8000</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>10</v>
@@ -1862,22 +1862,22 @@
         <v>1.0000</v>
       </c>
       <c r="C51" s="4">
-        <v>183.9515</v>
+        <v>184.0000</v>
       </c>
       <c r="D51" s="4">
-        <v>188.2588</v>
+        <v>188.1500</v>
       </c>
       <c r="E51" s="4">
-        <v>192.5412</v>
+        <v>192.5000</v>
       </c>
       <c r="F51" s="4">
-        <v>196.8529</v>
+        <v>196.9000</v>
       </c>
       <c r="G51" s="4">
-        <v>201.2529</v>
+        <v>201.1500</v>
       </c>
       <c r="H51" s="4">
-        <v>204.8788</v>
+        <v>205.2000</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>10</v>
@@ -1894,22 +1894,22 @@
         <v>2.0000</v>
       </c>
       <c r="C52" s="4">
-        <v>187.7500</v>
+        <v>187.5500</v>
       </c>
       <c r="D52" s="4">
-        <v>191.7605</v>
+        <v>191.8500</v>
       </c>
       <c r="E52" s="4">
-        <v>195.7921</v>
+        <v>195.8000</v>
       </c>
       <c r="F52" s="4">
-        <v>200.0868</v>
+        <v>200.0500</v>
       </c>
       <c r="G52" s="4">
-        <v>204.0737</v>
+        <v>204.0000</v>
       </c>
       <c r="H52" s="4">
-        <v>208.1444</v>
+        <v>208.5000</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>10</v>
@@ -1926,28 +1926,28 @@
         <v>3.0000</v>
       </c>
       <c r="C53" s="4">
-        <v>191.0968</v>
+        <v>191.2000</v>
       </c>
       <c r="D53" s="4">
-        <v>194.4400</v>
+        <v>194.8000</v>
       </c>
       <c r="E53" s="4">
-        <v>198.0229</v>
+        <v>198.8000</v>
       </c>
       <c r="F53" s="4">
-        <v>201.7857</v>
+        <v>202.1000</v>
       </c>
       <c r="G53" s="4">
-        <v>205.2714</v>
+        <v>205.4000</v>
       </c>
       <c r="H53" s="4">
-        <v>209.3676</v>
+        <v>210.0000</v>
       </c>
       <c r="I53" s="4">
-        <v>193.0912</v>
+        <v>193.0000</v>
       </c>
       <c r="J53" s="4">
-        <v>207.8382</v>
+        <v>208.4500</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
@@ -1958,28 +1958,28 @@
         <v>4.0000</v>
       </c>
       <c r="C54" s="4">
-        <v>195.2907</v>
+        <v>195.4000</v>
       </c>
       <c r="D54" s="4">
-        <v>199.1341</v>
+        <v>199.5000</v>
       </c>
       <c r="E54" s="4">
-        <v>203.0535</v>
+        <v>203.2000</v>
       </c>
       <c r="F54" s="4">
-        <v>206.5116</v>
+        <v>206.9000</v>
       </c>
       <c r="G54" s="4">
-        <v>210.2372</v>
+        <v>210.5000</v>
       </c>
       <c r="H54" s="4">
-        <v>214.0628</v>
+        <v>214.5000</v>
       </c>
       <c r="I54" s="4">
-        <v>193.5366</v>
+        <v>193.6000</v>
       </c>
       <c r="J54" s="4">
-        <v>208.5415</v>
+        <v>208.8000</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
@@ -1990,28 +1990,28 @@
         <v>1.0000</v>
       </c>
       <c r="C55" s="4">
-        <v>199.7618</v>
+        <v>199.6000</v>
       </c>
       <c r="D55" s="4">
-        <v>202.7588</v>
+        <v>203.0000</v>
       </c>
       <c r="E55" s="4">
-        <v>205.9088</v>
+        <v>206.1500</v>
       </c>
       <c r="F55" s="4">
-        <v>209.2676</v>
+        <v>209.7000</v>
       </c>
       <c r="G55" s="4">
-        <v>212.8147</v>
+        <v>213.4000</v>
       </c>
       <c r="H55" s="4">
-        <v>216.3933</v>
+        <v>217.2500</v>
       </c>
       <c r="I55" s="4">
-        <v>207.6424</v>
+        <v>208.0000</v>
       </c>
       <c r="J55" s="4">
-        <v>221.4586</v>
+        <v>223.0000</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
@@ -2022,28 +2022,28 @@
         <v>2.0000</v>
       </c>
       <c r="C56" s="4">
-        <v>201.8357</v>
+        <v>201.9000</v>
       </c>
       <c r="D56" s="4">
-        <v>204.0024</v>
+        <v>204.4000</v>
       </c>
       <c r="E56" s="4">
-        <v>206.4619</v>
+        <v>207.3500</v>
       </c>
       <c r="F56" s="4">
-        <v>209.5810</v>
+        <v>210.7000</v>
       </c>
       <c r="G56" s="4">
-        <v>212.4810</v>
+        <v>214.0000</v>
       </c>
       <c r="H56" s="4">
-        <v>215.2310</v>
+        <v>217.1500</v>
       </c>
       <c r="I56" s="4">
-        <v>205.5550</v>
+        <v>206.1000</v>
       </c>
       <c r="J56" s="4">
-        <v>217.1711</v>
+        <v>219.0000</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
@@ -2054,28 +2054,28 @@
         <v>3.0000</v>
       </c>
       <c r="C57" s="4">
-        <v>206.2525</v>
+        <v>206.4000</v>
       </c>
       <c r="D57" s="4">
-        <v>209.3634</v>
+        <v>209.4000</v>
       </c>
       <c r="E57" s="4">
-        <v>212.5366</v>
+        <v>212.5000</v>
       </c>
       <c r="F57" s="4">
-        <v>215.2707</v>
+        <v>215.6000</v>
       </c>
       <c r="G57" s="4">
-        <v>218.2293</v>
+        <v>218.7000</v>
       </c>
       <c r="H57" s="4">
-        <v>221.3268</v>
+        <v>221.7000</v>
       </c>
       <c r="I57" s="4">
-        <v>208.1385</v>
+        <v>208.0000</v>
       </c>
       <c r="J57" s="4">
-        <v>219.9128</v>
+        <v>220.3000</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1">
@@ -2086,28 +2086,28 @@
         <v>4.0000</v>
       </c>
       <c r="C58" s="4">
-        <v>208.7054</v>
+        <v>208.7000</v>
       </c>
       <c r="D58" s="4">
         <v>211.1000</v>
       </c>
       <c r="E58" s="4">
-        <v>213.7351</v>
+        <v>214.0000</v>
       </c>
       <c r="F58" s="4">
-        <v>216.5081</v>
+        <v>216.7000</v>
       </c>
       <c r="G58" s="4">
-        <v>219.4297</v>
+        <v>219.7000</v>
       </c>
       <c r="H58" s="4">
-        <v>222.4973</v>
+        <v>222.9000</v>
       </c>
       <c r="I58" s="4">
-        <v>207.3471</v>
+        <v>207.3000</v>
       </c>
       <c r="J58" s="4">
-        <v>218.2059</v>
+        <v>218.2500</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
@@ -2118,28 +2118,28 @@
         <v>1.0000</v>
       </c>
       <c r="C59" s="4">
-        <v>210.6806</v>
+        <v>210.7000</v>
       </c>
       <c r="D59" s="4">
-        <v>212.7750</v>
+        <v>212.9500</v>
       </c>
       <c r="E59" s="4">
-        <v>215.2444</v>
+        <v>215.3500</v>
       </c>
       <c r="F59" s="4">
-        <v>217.8583</v>
+        <v>218.0000</v>
       </c>
       <c r="G59" s="4">
-        <v>220.6444</v>
+        <v>221.0000</v>
       </c>
       <c r="H59" s="4">
-        <v>222.9774</v>
+        <v>223.6000</v>
       </c>
       <c r="I59" s="4">
-        <v>215.9250</v>
+        <v>216.7000</v>
       </c>
       <c r="J59" s="4">
-        <v>226.8687</v>
+        <v>228.1500</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1">
@@ -2150,28 +2150,28 @@
         <v>2.0000</v>
       </c>
       <c r="C60" s="4">
-        <v>213.3525</v>
+        <v>213.4000</v>
       </c>
       <c r="D60" s="4">
-        <v>215.5450</v>
+        <v>215.6000</v>
       </c>
       <c r="E60" s="4">
-        <v>217.8725</v>
+        <v>217.9000</v>
       </c>
       <c r="F60" s="4">
-        <v>220.4325</v>
+        <v>220.4000</v>
       </c>
       <c r="G60" s="4">
-        <v>223.1333</v>
+        <v>223.1000</v>
       </c>
       <c r="H60" s="4">
-        <v>225.8538</v>
+        <v>226.0000</v>
       </c>
       <c r="I60" s="4">
-        <v>216.8324</v>
+        <v>216.9000</v>
       </c>
       <c r="J60" s="4">
-        <v>227.2917</v>
+        <v>227.9500</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
@@ -2182,28 +2182,28 @@
         <v>3.0000</v>
       </c>
       <c r="C61" s="4">
-        <v>215.0300</v>
+        <v>215.2000</v>
       </c>
       <c r="D61" s="4">
-        <v>217.2219</v>
+        <v>217.2000</v>
       </c>
       <c r="E61" s="4">
-        <v>219.7031</v>
+        <v>219.7000</v>
       </c>
       <c r="F61" s="4">
         <v>222.4000</v>
       </c>
       <c r="G61" s="4">
-        <v>225.1469</v>
+        <v>225.0000</v>
       </c>
       <c r="H61" s="4">
-        <v>228.1094</v>
+        <v>227.9500</v>
       </c>
       <c r="I61" s="4">
-        <v>216.2300</v>
+        <v>216.2000</v>
       </c>
       <c r="J61" s="4">
-        <v>226.6000</v>
+        <v>226.6500</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1">
@@ -2214,28 +2214,28 @@
         <v>4.0000</v>
       </c>
       <c r="C62" s="4">
-        <v>216.3222</v>
+        <v>216.4000</v>
       </c>
       <c r="D62" s="4">
-        <v>218.7649</v>
+        <v>218.7000</v>
       </c>
       <c r="E62" s="4">
-        <v>221.5216</v>
+        <v>221.8000</v>
       </c>
       <c r="F62" s="4">
-        <v>224.3486</v>
+        <v>224.7000</v>
       </c>
       <c r="G62" s="4">
-        <v>227.5378</v>
+        <v>227.9000</v>
       </c>
       <c r="H62" s="4">
-        <v>230.3216</v>
+        <v>230.8000</v>
       </c>
       <c r="I62" s="4">
-        <v>215.6286</v>
+        <v>215.7000</v>
       </c>
       <c r="J62" s="4">
-        <v>225.9972</v>
+        <v>226.1500</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
@@ -2246,28 +2246,28 @@
         <v>1.0000</v>
       </c>
       <c r="C63" s="4">
-        <v>218.6172</v>
+        <v>218.5000</v>
       </c>
       <c r="D63" s="4">
-        <v>221.0267</v>
+        <v>221.0000</v>
       </c>
       <c r="E63" s="4">
-        <v>223.5033</v>
+        <v>223.5500</v>
       </c>
       <c r="F63" s="4">
-        <v>226.2033</v>
+        <v>226.0000</v>
       </c>
       <c r="G63" s="4">
-        <v>229.2700</v>
+        <v>229.0000</v>
       </c>
       <c r="H63" s="4">
-        <v>232.0621</v>
+        <v>232.0000</v>
       </c>
       <c r="I63" s="4">
-        <v>225.0483</v>
+        <v>225.0000</v>
       </c>
       <c r="J63" s="4">
-        <v>236.4407</v>
+        <v>236.5000</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1">
@@ -2278,28 +2278,28 @@
         <v>2.0000</v>
       </c>
       <c r="C64" s="4">
-        <v>220.7206</v>
+        <v>220.7000</v>
       </c>
       <c r="D64" s="4">
-        <v>223.2057</v>
+        <v>223.0000</v>
       </c>
       <c r="E64" s="4">
-        <v>225.8743</v>
+        <v>226.0000</v>
       </c>
       <c r="F64" s="4">
-        <v>228.8200</v>
+        <v>228.9000</v>
       </c>
       <c r="G64" s="4">
-        <v>231.7771</v>
+        <v>231.8000</v>
       </c>
       <c r="H64" s="4">
-        <v>234.9857</v>
+        <v>235.0000</v>
       </c>
       <c r="I64" s="4">
-        <v>224.7324</v>
+        <v>224.7500</v>
       </c>
       <c r="J64" s="4">
-        <v>236.4758</v>
+        <v>237.0000</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
@@ -2310,28 +2310,28 @@
         <v>3.0000</v>
       </c>
       <c r="C65" s="4">
-        <v>222.2960</v>
+        <v>222.3000</v>
       </c>
       <c r="D65" s="4">
-        <v>224.4692</v>
+        <v>224.4000</v>
       </c>
       <c r="E65" s="4">
-        <v>226.9385</v>
+        <v>226.6500</v>
       </c>
       <c r="F65" s="4">
-        <v>229.5538</v>
+        <v>229.3000</v>
       </c>
       <c r="G65" s="4">
-        <v>232.4115</v>
+        <v>232.0000</v>
       </c>
       <c r="H65" s="4">
-        <v>235.3077</v>
+        <v>235.0500</v>
       </c>
       <c r="I65" s="4">
-        <v>223.5520</v>
+        <v>223.5000</v>
       </c>
       <c r="J65" s="4">
-        <v>234.0320</v>
+        <v>233.6000</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
@@ -2342,28 +2342,28 @@
         <v>4.0000</v>
       </c>
       <c r="C66" s="4">
-        <v>224.2774</v>
+        <v>224.4000</v>
       </c>
       <c r="D66" s="4">
-        <v>226.7097</v>
+        <v>226.6000</v>
       </c>
       <c r="E66" s="4">
-        <v>229.0548</v>
+        <v>229.0000</v>
       </c>
       <c r="F66" s="4">
-        <v>231.5645</v>
+        <v>231.6000</v>
       </c>
       <c r="G66" s="4">
-        <v>234.1323</v>
+        <v>234.2000</v>
       </c>
       <c r="H66" s="4">
-        <v>236.8839</v>
+        <v>236.6000</v>
       </c>
       <c r="I66" s="4">
-        <v>223.5367</v>
+        <v>223.5000</v>
       </c>
       <c r="J66" s="4">
-        <v>232.8533</v>
+        <v>233.0500</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1">
@@ -2374,28 +2374,28 @@
         <v>1.0000</v>
       </c>
       <c r="C67" s="4">
-        <v>225.9542</v>
+        <v>225.9000</v>
       </c>
       <c r="D67" s="4">
-        <v>227.7958</v>
+        <v>227.9000</v>
       </c>
       <c r="E67" s="4">
-        <v>229.7625</v>
+        <v>229.8500</v>
       </c>
       <c r="F67" s="4">
-        <v>232.0917</v>
+        <v>232.0000</v>
       </c>
       <c r="G67" s="4">
-        <v>234.5958</v>
+        <v>234.8500</v>
       </c>
       <c r="H67" s="4">
-        <v>236.9667</v>
+        <v>237.0000</v>
       </c>
       <c r="I67" s="4">
-        <v>223.3130</v>
+        <v>223.4000</v>
       </c>
       <c r="J67" s="4">
-        <v>231.0870</v>
+        <v>231.1000</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
@@ -2406,28 +2406,28 @@
         <v>2.0000</v>
       </c>
       <c r="C68" s="4">
-        <v>229.1214</v>
+        <v>229.0000</v>
       </c>
       <c r="D68" s="4">
-        <v>231.0893</v>
+        <v>231.0000</v>
       </c>
       <c r="E68" s="4">
-        <v>233.2286</v>
+        <v>233.3500</v>
       </c>
       <c r="F68" s="4">
-        <v>235.7036</v>
+        <v>235.8500</v>
       </c>
       <c r="G68" s="4">
-        <v>238.3037</v>
+        <v>238.6000</v>
       </c>
       <c r="H68" s="4">
-        <v>240.8926</v>
+        <v>241.0000</v>
       </c>
       <c r="I68" s="4">
-        <v>232.3333</v>
+        <v>232.3000</v>
       </c>
       <c r="J68" s="4">
-        <v>242.2520</v>
+        <v>241.8000</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1">
@@ -2438,28 +2438,28 @@
         <v>3.0000</v>
       </c>
       <c r="C69" s="4">
-        <v>230.6871</v>
+        <v>230.6000</v>
       </c>
       <c r="D69" s="4">
-        <v>232.5742</v>
+        <v>232.6000</v>
       </c>
       <c r="E69" s="4">
-        <v>234.7581</v>
+        <v>234.7000</v>
       </c>
       <c r="F69" s="4">
-        <v>237.0903</v>
+        <v>237.1000</v>
       </c>
       <c r="G69" s="4">
-        <v>239.7903</v>
+        <v>239.7000</v>
       </c>
       <c r="H69" s="4">
-        <v>242.4567</v>
+        <v>242.4000</v>
       </c>
       <c r="I69" s="4">
-        <v>231.8241</v>
+        <v>231.8000</v>
       </c>
       <c r="J69" s="4">
-        <v>241.2517</v>
+        <v>241.0000</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
@@ -2470,28 +2470,28 @@
         <v>4.0000</v>
       </c>
       <c r="C70" s="4">
-        <v>232.1458</v>
+        <v>232.0000</v>
       </c>
       <c r="D70" s="4">
-        <v>234.1917</v>
+        <v>234.0000</v>
       </c>
       <c r="E70" s="4">
-        <v>236.3250</v>
+        <v>236.3000</v>
       </c>
       <c r="F70" s="4">
-        <v>238.4167</v>
+        <v>238.2000</v>
       </c>
       <c r="G70" s="4">
-        <v>240.7125</v>
+        <v>240.6000</v>
       </c>
       <c r="H70" s="4">
-        <v>243.2500</v>
+        <v>243.3000</v>
       </c>
       <c r="I70" s="4">
-        <v>231.5261</v>
+        <v>231.6000</v>
       </c>
       <c r="J70" s="4">
-        <v>239.7043</v>
+        <v>239.6000</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1">
@@ -2505,25 +2505,25 @@
         <v>113.0000</v>
       </c>
       <c r="D71" s="4">
-        <v>113.9320</v>
+        <v>114.0000</v>
       </c>
       <c r="E71" s="4">
-        <v>114.7800</v>
+        <v>114.7000</v>
       </c>
       <c r="F71" s="4">
-        <v>115.9280</v>
+        <v>115.8000</v>
       </c>
       <c r="G71" s="4">
-        <v>116.9080</v>
+        <v>117.0000</v>
       </c>
       <c r="H71" s="4">
-        <v>118.2880</v>
+        <v>117.8000</v>
       </c>
       <c r="I71" s="4">
-        <v>112.0136</v>
+        <v>111.7000</v>
       </c>
       <c r="J71" s="4">
-        <v>115.3708</v>
+        <v>115.2000</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
@@ -2534,28 +2534,28 @@
         <v>2.0000</v>
       </c>
       <c r="C72" s="4">
-        <v>113.7250</v>
+        <v>113.7000</v>
       </c>
       <c r="D72" s="4">
-        <v>114.2679</v>
+        <v>114.2000</v>
       </c>
       <c r="E72" s="4">
-        <v>114.9786</v>
+        <v>115.0000</v>
       </c>
       <c r="F72" s="4">
-        <v>115.9429</v>
+        <v>115.9000</v>
       </c>
       <c r="G72" s="4">
-        <v>116.9179</v>
+        <v>116.8500</v>
       </c>
       <c r="H72" s="4">
-        <v>118.0593</v>
+        <v>117.8000</v>
       </c>
       <c r="I72" s="4">
-        <v>114.7778</v>
+        <v>114.7000</v>
       </c>
       <c r="J72" s="4">
-        <v>118.5692</v>
+        <v>118.4500</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
@@ -2566,28 +2566,28 @@
         <v>3.0000</v>
       </c>
       <c r="C73" s="4">
-        <v>114.1333</v>
+        <v>114.1000</v>
       </c>
       <c r="D73" s="4">
-        <v>114.6250</v>
+        <v>114.7000</v>
       </c>
       <c r="E73" s="4">
-        <v>115.3125</v>
+        <v>115.2000</v>
       </c>
       <c r="F73" s="4">
-        <v>116.0500</v>
+        <v>116.1000</v>
       </c>
       <c r="G73" s="4">
-        <v>116.9750</v>
+        <v>116.9500</v>
       </c>
       <c r="H73" s="4">
-        <v>117.8917</v>
+        <v>117.7000</v>
       </c>
       <c r="I73" s="4">
-        <v>114.3875</v>
+        <v>114.4000</v>
       </c>
       <c r="J73" s="4">
-        <v>117.4250</v>
+        <v>117.3000</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
@@ -2601,25 +2601,25 @@
         <v>115.0000</v>
       </c>
       <c r="D74" s="4">
-        <v>115.6583</v>
+        <v>115.7000</v>
       </c>
       <c r="E74" s="4">
-        <v>116.5208</v>
+        <v>116.5500</v>
       </c>
       <c r="F74" s="4">
-        <v>117.3000</v>
+        <v>117.3500</v>
       </c>
       <c r="G74" s="4">
-        <v>118.4125</v>
+        <v>118.3500</v>
       </c>
       <c r="H74" s="4">
-        <v>119.4625</v>
+        <v>119.3000</v>
       </c>
       <c r="I74" s="4">
-        <v>114.7261</v>
+        <v>114.6000</v>
       </c>
       <c r="J74" s="4">
-        <v>117.8870</v>
+        <v>118.0000</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1">
@@ -2630,28 +2630,28 @@
         <v>1.0000</v>
       </c>
       <c r="C75" s="4">
-        <v>115.2318</v>
+        <v>115.3000</v>
       </c>
       <c r="D75" s="4">
-        <v>116.1318</v>
+        <v>116.1000</v>
       </c>
       <c r="E75" s="4">
-        <v>117.0773</v>
+        <v>117.0500</v>
       </c>
       <c r="F75" s="4">
-        <v>118.2545</v>
+        <v>118.1000</v>
       </c>
       <c r="G75" s="4">
-        <v>119.3409</v>
+        <v>119.2500</v>
       </c>
       <c r="H75" s="4">
-        <v>120.4905</v>
+        <v>120.4000</v>
       </c>
       <c r="I75" s="4">
-        <v>117.7091</v>
+        <v>117.6000</v>
       </c>
       <c r="J75" s="4">
-        <v>121.0350</v>
+        <v>121.9500</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
@@ -2662,28 +2662,28 @@
         <v>2.0000</v>
       </c>
       <c r="C76" s="4">
-        <v>116.2296</v>
+        <v>116.2000</v>
       </c>
       <c r="D76" s="4">
         <v>117.4000</v>
       </c>
       <c r="E76" s="4">
-        <v>118.5704</v>
+        <v>118.5000</v>
       </c>
       <c r="F76" s="4">
-        <v>119.6852</v>
+        <v>119.7000</v>
       </c>
       <c r="G76" s="4">
-        <v>120.8074</v>
+        <v>120.9000</v>
       </c>
       <c r="H76" s="4">
-        <v>122.0519</v>
+        <v>122.0000</v>
       </c>
       <c r="I76" s="4">
-        <v>117.9963</v>
+        <v>118.0000</v>
       </c>
       <c r="J76" s="4">
-        <v>122.7538</v>
+        <v>122.7000</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -2694,28 +2694,28 @@
         <v>3.0000</v>
       </c>
       <c r="C77" s="4">
-        <v>117.1727</v>
+        <v>117.2000</v>
       </c>
       <c r="D77" s="4">
-        <v>118.3818</v>
+        <v>118.3000</v>
       </c>
       <c r="E77" s="4">
-        <v>119.8182</v>
+        <v>119.5000</v>
       </c>
       <c r="F77" s="4">
-        <v>121.0909</v>
+        <v>120.7500</v>
       </c>
       <c r="G77" s="4">
-        <v>122.3364</v>
+        <v>122.0000</v>
       </c>
       <c r="H77" s="4">
-        <v>123.5810</v>
+        <v>123.2000</v>
       </c>
       <c r="I77" s="4">
-        <v>117.9591</v>
+        <v>117.8000</v>
       </c>
       <c r="J77" s="4">
-        <v>122.9238</v>
+        <v>122.6000</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -2726,28 +2726,28 @@
         <v>4.0000</v>
       </c>
       <c r="C78" s="4">
-        <v>117.8579</v>
+        <v>117.8000</v>
       </c>
       <c r="D78" s="4">
-        <v>118.8105</v>
+        <v>118.8000</v>
       </c>
       <c r="E78" s="4">
-        <v>119.7737</v>
+        <v>119.8000</v>
       </c>
       <c r="F78" s="4">
-        <v>120.9474</v>
+        <v>120.8000</v>
       </c>
       <c r="G78" s="4">
-        <v>121.9158</v>
+        <v>121.9000</v>
       </c>
       <c r="H78" s="4">
-        <v>123.2684</v>
+        <v>123.1000</v>
       </c>
       <c r="I78" s="4">
-        <v>117.4421</v>
+        <v>117.4000</v>
       </c>
       <c r="J78" s="4">
-        <v>121.5263</v>
+        <v>121.4000</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -2758,28 +2758,28 @@
         <v>1.0000</v>
       </c>
       <c r="C79" s="4">
-        <v>118.7333</v>
+        <v>118.7000</v>
       </c>
       <c r="D79" s="4">
-        <v>119.7111</v>
+        <v>119.6500</v>
       </c>
       <c r="E79" s="4">
-        <v>120.7611</v>
+        <v>120.6500</v>
       </c>
       <c r="F79" s="4">
-        <v>121.8667</v>
+        <v>121.8500</v>
       </c>
       <c r="G79" s="4">
-        <v>123.1667</v>
+        <v>123.0500</v>
       </c>
       <c r="H79" s="4">
-        <v>124.5222</v>
+        <v>124.1500</v>
       </c>
       <c r="I79" s="4">
-        <v>121.4333</v>
+        <v>121.3000</v>
       </c>
       <c r="J79" s="4">
-        <v>126.4056</v>
+        <v>126.1000</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -2790,28 +2790,28 @@
         <v>2.0000</v>
       </c>
       <c r="C80" s="4">
-        <v>119.3471</v>
+        <v>119.4000</v>
       </c>
       <c r="D80" s="4">
-        <v>120.4833</v>
+        <v>120.4500</v>
       </c>
       <c r="E80" s="4">
-        <v>121.5722</v>
+        <v>121.5500</v>
       </c>
       <c r="F80" s="4">
-        <v>122.8222</v>
+        <v>122.9000</v>
       </c>
       <c r="G80" s="4">
-        <v>124.0556</v>
+        <v>124.1000</v>
       </c>
       <c r="H80" s="4">
-        <v>125.3389</v>
+        <v>125.2000</v>
       </c>
       <c r="I80" s="4">
-        <v>121.0611</v>
+        <v>121.0500</v>
       </c>
       <c r="J80" s="4">
-        <v>126.1353</v>
+        <v>126.0000</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -2822,28 +2822,28 @@
         <v>3.0000</v>
       </c>
       <c r="C81" s="4">
-        <v>120.7389</v>
+        <v>120.6000</v>
       </c>
       <c r="D81" s="4">
-        <v>121.9278</v>
+        <v>121.9000</v>
       </c>
       <c r="E81" s="4">
-        <v>123.1611</v>
+        <v>123.1000</v>
       </c>
       <c r="F81" s="4">
-        <v>124.4389</v>
+        <v>124.3500</v>
       </c>
       <c r="G81" s="4">
-        <v>125.8056</v>
+        <v>125.7500</v>
       </c>
       <c r="H81" s="4">
-        <v>127.0500</v>
+        <v>127.0000</v>
       </c>
       <c r="I81" s="4">
-        <v>121.2882</v>
+        <v>121.3000</v>
       </c>
       <c r="J81" s="4">
-        <v>126.6529</v>
+        <v>126.4000</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -2857,25 +2857,25 @@
         <v>122.3000</v>
       </c>
       <c r="D82" s="4">
-        <v>123.7400</v>
+        <v>123.6000</v>
       </c>
       <c r="E82" s="4">
-        <v>125.0933</v>
+        <v>125.0000</v>
       </c>
       <c r="F82" s="4">
-        <v>126.5067</v>
+        <v>126.4000</v>
       </c>
       <c r="G82" s="4">
-        <v>127.8133</v>
+        <v>127.9000</v>
       </c>
       <c r="H82" s="4">
-        <v>129.1800</v>
+        <v>129.0000</v>
       </c>
       <c r="I82" s="4">
-        <v>121.8600</v>
+        <v>121.6000</v>
       </c>
       <c r="J82" s="4">
-        <v>127.0733</v>
+        <v>126.9000</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -2886,28 +2886,28 @@
         <v>1.0000</v>
       </c>
       <c r="C83" s="4">
-        <v>123.8235</v>
+        <v>123.8000</v>
       </c>
       <c r="D83" s="4">
-        <v>125.0941</v>
+        <v>125.1000</v>
       </c>
       <c r="E83" s="4">
-        <v>126.5235</v>
+        <v>126.3000</v>
       </c>
       <c r="F83" s="4">
-        <v>127.9353</v>
+        <v>127.9000</v>
       </c>
       <c r="G83" s="4">
-        <v>129.3765</v>
+        <v>129.3000</v>
       </c>
       <c r="H83" s="4">
-        <v>130.9250</v>
+        <v>130.8000</v>
       </c>
       <c r="I83" s="4">
-        <v>127.2294</v>
+        <v>127.2000</v>
       </c>
       <c r="J83" s="4">
-        <v>132.9600</v>
+        <v>132.7000</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -2918,28 +2918,28 @@
         <v>2.0000</v>
       </c>
       <c r="C84" s="4">
-        <v>125.1882</v>
+        <v>125.2000</v>
       </c>
       <c r="D84" s="4">
-        <v>126.6294</v>
+        <v>126.7000</v>
       </c>
       <c r="E84" s="4">
-        <v>128.0529</v>
+        <v>128.1000</v>
       </c>
       <c r="F84" s="4">
-        <v>129.3765</v>
+        <v>129.4000</v>
       </c>
       <c r="G84" s="4">
-        <v>130.8000</v>
+        <v>131.0000</v>
       </c>
       <c r="H84" s="4">
-        <v>132.2250</v>
+        <v>132.5000</v>
       </c>
       <c r="I84" s="4">
-        <v>127.3529</v>
+        <v>127.4000</v>
       </c>
       <c r="J84" s="4">
-        <v>133.2235</v>
+        <v>133.0000</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -2950,28 +2950,28 @@
         <v>3.0000</v>
       </c>
       <c r="C85" s="4">
-        <v>126.0467</v>
+        <v>126.0000</v>
       </c>
       <c r="D85" s="4">
-        <v>127.2467</v>
+        <v>127.3000</v>
       </c>
       <c r="E85" s="4">
-        <v>128.4467</v>
+        <v>128.7000</v>
       </c>
       <c r="F85" s="4">
-        <v>129.8867</v>
+        <v>130.0000</v>
       </c>
       <c r="G85" s="4">
-        <v>131.2467</v>
+        <v>131.2000</v>
       </c>
       <c r="H85" s="4">
-        <v>132.6800</v>
+        <v>132.8000</v>
       </c>
       <c r="I85" s="4">
-        <v>126.5914</v>
+        <v>126.6000</v>
       </c>
       <c r="J85" s="4">
-        <v>131.8231</v>
+        <v>132.0000</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -2982,28 +2982,28 @@
         <v>4.0000</v>
       </c>
       <c r="C86" s="4">
-        <v>126.6667</v>
+        <v>126.8000</v>
       </c>
       <c r="D86" s="4">
-        <v>127.8800</v>
+        <v>128.0000</v>
       </c>
       <c r="E86" s="4">
-        <v>129.1267</v>
+        <v>129.3000</v>
       </c>
       <c r="F86" s="4">
-        <v>130.4000</v>
+        <v>130.5000</v>
       </c>
       <c r="G86" s="4">
-        <v>131.7667</v>
+        <v>131.9000</v>
       </c>
       <c r="H86" s="4">
-        <v>133.1067</v>
+        <v>133.1000</v>
       </c>
       <c r="I86" s="4">
-        <v>126.1067</v>
+        <v>126.3000</v>
       </c>
       <c r="J86" s="4">
-        <v>131.1133</v>
+        <v>131.2000</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -3014,28 +3014,28 @@
         <v>1.0000</v>
       </c>
       <c r="C87" s="4">
-        <v>128.0077</v>
+        <v>128.0000</v>
       </c>
       <c r="D87" s="4">
-        <v>129.3462</v>
+        <v>129.3000</v>
       </c>
       <c r="E87" s="4">
-        <v>130.6000</v>
+        <v>130.5000</v>
       </c>
       <c r="F87" s="4">
-        <v>131.9000</v>
+        <v>131.8000</v>
       </c>
       <c r="G87" s="4">
-        <v>133.2769</v>
+        <v>133.0000</v>
       </c>
       <c r="H87" s="4">
-        <v>134.6769</v>
+        <v>134.5000</v>
       </c>
       <c r="I87" s="4">
-        <v>126.8615</v>
+        <v>126.3000</v>
       </c>
       <c r="J87" s="4">
-        <v>132.0692</v>
+        <v>131.2000</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -3046,28 +3046,28 @@
         <v>2.0000</v>
       </c>
       <c r="C88" s="4">
-        <v>129.6889</v>
+        <v>129.7000</v>
       </c>
       <c r="D88" s="4">
-        <v>130.9000</v>
+        <v>131.0000</v>
       </c>
       <c r="E88" s="4">
-        <v>132.2333</v>
+        <v>132.2000</v>
       </c>
       <c r="F88" s="4">
-        <v>133.5778</v>
+        <v>133.5000</v>
       </c>
       <c r="G88" s="4">
-        <v>135.0333</v>
+        <v>135.0000</v>
       </c>
       <c r="H88" s="4">
-        <v>136.4222</v>
+        <v>136.0000</v>
       </c>
       <c r="I88" s="4">
-        <v>131.4556</v>
+        <v>131.6000</v>
       </c>
       <c r="J88" s="4">
-        <v>136.4625</v>
+        <v>136.5500</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -3078,28 +3078,28 @@
         <v>3.0000</v>
       </c>
       <c r="C89" s="4">
-        <v>130.9231</v>
+        <v>130.9000</v>
       </c>
       <c r="D89" s="4">
-        <v>132.3077</v>
+        <v>132.3000</v>
       </c>
       <c r="E89" s="4">
-        <v>133.7000</v>
+        <v>133.8000</v>
       </c>
       <c r="F89" s="4">
-        <v>135.1308</v>
+        <v>135.3000</v>
       </c>
       <c r="G89" s="4">
-        <v>136.4692</v>
+        <v>136.6000</v>
       </c>
       <c r="H89" s="4">
-        <v>137.8667</v>
+        <v>138.1000</v>
       </c>
       <c r="I89" s="4">
-        <v>131.6538</v>
+        <v>131.6000</v>
       </c>
       <c r="J89" s="4">
-        <v>137.0385</v>
+        <v>137.3000</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
@@ -3110,28 +3110,28 @@
         <v>4.0000</v>
       </c>
       <c r="C90" s="4">
-        <v>132.0967</v>
+        <v>132.1000</v>
       </c>
       <c r="D90" s="4">
-        <v>133.6667</v>
+        <v>133.6500</v>
       </c>
       <c r="E90" s="4">
-        <v>135.1933</v>
+        <v>135.2000</v>
       </c>
       <c r="F90" s="4">
-        <v>136.5300</v>
+        <v>136.6500</v>
       </c>
       <c r="G90" s="4">
-        <v>137.8233</v>
+        <v>138.0000</v>
       </c>
       <c r="H90" s="4">
-        <v>139.1100</v>
+        <v>139.3500</v>
       </c>
       <c r="I90" s="4">
-        <v>131.5633</v>
+        <v>131.6000</v>
       </c>
       <c r="J90" s="4">
-        <v>137.2033</v>
+        <v>137.2000</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
@@ -3142,28 +3142,28 @@
         <v>1.0000</v>
       </c>
       <c r="C91" s="4">
-        <v>133.0971</v>
+        <v>133.1000</v>
       </c>
       <c r="D91" s="4">
-        <v>134.5771</v>
+        <v>134.5000</v>
       </c>
       <c r="E91" s="4">
-        <v>135.8029</v>
+        <v>135.8000</v>
       </c>
       <c r="F91" s="4">
-        <v>136.9486</v>
+        <v>137.1000</v>
       </c>
       <c r="G91" s="4">
-        <v>138.0943</v>
+        <v>138.1000</v>
       </c>
       <c r="H91" s="4">
-        <v>139.2367</v>
+        <v>139.2000</v>
       </c>
       <c r="I91" s="4">
-        <v>136.2400</v>
+        <v>136.5000</v>
       </c>
       <c r="J91" s="4">
-        <v>140.8172</v>
+        <v>140.8000</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
@@ -3174,28 +3174,28 @@
         <v>2.0000</v>
       </c>
       <c r="C92" s="4">
-        <v>134.9095</v>
+        <v>134.9000</v>
       </c>
       <c r="D92" s="4">
-        <v>136.0333</v>
+        <v>136.0000</v>
       </c>
       <c r="E92" s="4">
-        <v>137.1667</v>
+        <v>137.2000</v>
       </c>
       <c r="F92" s="4">
-        <v>138.2976</v>
+        <v>138.3000</v>
       </c>
       <c r="G92" s="4">
-        <v>139.4846</v>
+        <v>139.4000</v>
       </c>
       <c r="H92" s="4">
-        <v>140.6692</v>
+        <v>140.6000</v>
       </c>
       <c r="I92" s="4">
-        <v>136.6548</v>
+        <v>136.6500</v>
       </c>
       <c r="J92" s="4">
-        <v>141.4026</v>
+        <v>141.3000</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
@@ -3206,28 +3206,28 @@
         <v>3.0000</v>
       </c>
       <c r="C93" s="4">
-        <v>136.0848</v>
+        <v>136.1000</v>
       </c>
       <c r="D93" s="4">
-        <v>137.1636</v>
+        <v>137.2000</v>
       </c>
       <c r="E93" s="4">
-        <v>138.2758</v>
+        <v>138.3000</v>
       </c>
       <c r="F93" s="4">
-        <v>139.3909</v>
+        <v>139.4000</v>
       </c>
       <c r="G93" s="4">
-        <v>140.6091</v>
+        <v>140.7000</v>
       </c>
       <c r="H93" s="4">
-        <v>141.7344</v>
+        <v>141.8000</v>
       </c>
       <c r="I93" s="4">
-        <v>136.5848</v>
+        <v>136.6000</v>
       </c>
       <c r="J93" s="4">
-        <v>141.1844</v>
+        <v>141.2500</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
@@ -3241,25 +3241,25 @@
         <v>136.9000</v>
       </c>
       <c r="D94" s="4">
-        <v>137.7923</v>
+        <v>137.8000</v>
       </c>
       <c r="E94" s="4">
-        <v>138.8744</v>
+        <v>138.9000</v>
       </c>
       <c r="F94" s="4">
-        <v>139.8974</v>
+        <v>139.9000</v>
       </c>
       <c r="G94" s="4">
-        <v>140.9846</v>
+        <v>141.0000</v>
       </c>
       <c r="H94" s="4">
-        <v>142.1000</v>
+        <v>142.2000</v>
       </c>
       <c r="I94" s="4">
-        <v>136.4692</v>
+        <v>136.4000</v>
       </c>
       <c r="J94" s="4">
-        <v>140.4718</v>
+        <v>140.5000</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
@@ -3270,28 +3270,28 @@
         <v>1.0000</v>
       </c>
       <c r="C95" s="4">
-        <v>117.9103</v>
+        <v>117.9000</v>
       </c>
       <c r="D95" s="4">
-        <v>118.7683</v>
+        <v>118.7460</v>
       </c>
       <c r="E95" s="4">
-        <v>119.6061</v>
+        <v>119.6260</v>
       </c>
       <c r="F95" s="4">
-        <v>120.5040</v>
+        <v>120.5000</v>
       </c>
       <c r="G95" s="4">
-        <v>121.4268</v>
+        <v>121.4360</v>
       </c>
       <c r="H95" s="4">
-        <v>122.5356</v>
+        <v>122.6050</v>
       </c>
       <c r="I95" s="4">
-        <v>120.1190</v>
+        <v>120.1000</v>
       </c>
       <c r="J95" s="4">
-        <v>124.0786</v>
+        <v>124.0000</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
@@ -3302,28 +3302,28 @@
         <v>2.0000</v>
       </c>
       <c r="C96" s="4">
-        <v>118.7973</v>
+        <v>118.8000</v>
       </c>
       <c r="D96" s="4">
-        <v>119.6426</v>
+        <v>119.6810</v>
       </c>
       <c r="E96" s="4">
-        <v>120.5365</v>
+        <v>120.5000</v>
       </c>
       <c r="F96" s="4">
-        <v>121.4766</v>
+        <v>121.4000</v>
       </c>
       <c r="G96" s="4">
-        <v>122.5291</v>
+        <v>122.4500</v>
       </c>
       <c r="H96" s="4">
-        <v>123.5314</v>
+        <v>123.4000</v>
       </c>
       <c r="I96" s="4">
-        <v>120.1279</v>
+        <v>120.1000</v>
       </c>
       <c r="J96" s="4">
-        <v>124.0214</v>
+        <v>123.8000</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
@@ -3337,25 +3337,25 @@
         <v>120.5000</v>
       </c>
       <c r="D97" s="4">
-        <v>121.2654</v>
+        <v>121.2170</v>
       </c>
       <c r="E97" s="4">
-        <v>122.0819</v>
+        <v>122.0430</v>
       </c>
       <c r="F97" s="4">
-        <v>122.9668</v>
+        <v>122.9620</v>
       </c>
       <c r="G97" s="4">
-        <v>123.8182</v>
+        <v>123.7830</v>
       </c>
       <c r="H97" s="4">
-        <v>124.6989</v>
+        <v>124.6000</v>
       </c>
       <c r="I97" s="4">
-        <v>120.8944</v>
+        <v>120.9000</v>
       </c>
       <c r="J97" s="4">
-        <v>124.3095</v>
+        <v>124.2470</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
@@ -3366,28 +3366,28 @@
         <v>4.0000</v>
       </c>
       <c r="C98" s="4">
-        <v>121.2026</v>
+        <v>121.2000</v>
       </c>
       <c r="D98" s="4">
-        <v>121.9622</v>
+        <v>122.0000</v>
       </c>
       <c r="E98" s="4">
-        <v>122.8139</v>
+        <v>122.8000</v>
       </c>
       <c r="F98" s="4">
-        <v>123.6780</v>
+        <v>123.6000</v>
       </c>
       <c r="G98" s="4">
-        <v>124.5426</v>
+        <v>124.4270</v>
       </c>
       <c r="H98" s="4">
-        <v>125.4315</v>
+        <v>125.3020</v>
       </c>
       <c r="I98" s="4">
-        <v>120.9254</v>
+        <v>120.9000</v>
       </c>
       <c r="J98" s="4">
-        <v>124.1809</v>
+        <v>124.1000</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
@@ -3401,25 +3401,25 @@
         <v>121.7000</v>
       </c>
       <c r="D99" s="4">
-        <v>122.5373</v>
+        <v>122.5430</v>
       </c>
       <c r="E99" s="4">
-        <v>123.3485</v>
+        <v>123.3020</v>
       </c>
       <c r="F99" s="4">
-        <v>124.2066</v>
+        <v>124.1860</v>
       </c>
       <c r="G99" s="4">
-        <v>125.1035</v>
+        <v>125.1000</v>
       </c>
       <c r="H99" s="4">
-        <v>125.9745</v>
+        <v>125.9500</v>
       </c>
       <c r="I99" s="4">
-        <v>123.9152</v>
+        <v>123.9000</v>
       </c>
       <c r="J99" s="4">
-        <v>127.3928</v>
+        <v>127.2000</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
@@ -3430,28 +3430,28 @@
         <v>2.0000</v>
       </c>
       <c r="C100" s="4">
-        <v>122.8714</v>
+        <v>122.9000</v>
       </c>
       <c r="D100" s="4">
-        <v>123.7307</v>
+        <v>123.7210</v>
       </c>
       <c r="E100" s="4">
-        <v>124.5999</v>
+        <v>124.5000</v>
       </c>
       <c r="F100" s="4">
-        <v>125.5114</v>
+        <v>125.4000</v>
       </c>
       <c r="G100" s="4">
-        <v>126.4208</v>
+        <v>126.2000</v>
       </c>
       <c r="H100" s="4">
-        <v>127.4294</v>
+        <v>127.1305</v>
       </c>
       <c r="I100" s="4">
-        <v>124.2189</v>
+        <v>124.2000</v>
       </c>
       <c r="J100" s="4">
-        <v>127.9355</v>
+        <v>127.7000</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
@@ -3465,25 +3465,25 @@
         <v>123.7000</v>
       </c>
       <c r="D101" s="4">
-        <v>124.5497</v>
+        <v>124.5000</v>
       </c>
       <c r="E101" s="4">
-        <v>125.4745</v>
+        <v>125.4000</v>
       </c>
       <c r="F101" s="4">
-        <v>126.4072</v>
+        <v>126.4000</v>
       </c>
       <c r="G101" s="4">
-        <v>127.3876</v>
+        <v>127.4000</v>
       </c>
       <c r="H101" s="4">
-        <v>128.2778</v>
+        <v>128.3000</v>
       </c>
       <c r="I101" s="4">
-        <v>124.2226</v>
+        <v>124.1643</v>
       </c>
       <c r="J101" s="4">
-        <v>127.8804</v>
+        <v>127.8000</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
@@ -3497,25 +3497,25 @@
         <v>124.5000</v>
       </c>
       <c r="D102" s="4">
-        <v>125.3203</v>
+        <v>125.3000</v>
       </c>
       <c r="E102" s="4">
-        <v>126.2152</v>
+        <v>126.1000</v>
       </c>
       <c r="F102" s="4">
-        <v>127.1215</v>
+        <v>127.0000</v>
       </c>
       <c r="G102" s="4">
-        <v>128.0520</v>
+        <v>127.9415</v>
       </c>
       <c r="H102" s="4">
-        <v>128.9749</v>
+        <v>128.8500</v>
       </c>
       <c r="I102" s="4">
-        <v>124.2949</v>
+        <v>124.3000</v>
       </c>
       <c r="J102" s="4">
-        <v>127.5450</v>
+        <v>127.4895</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
@@ -3529,25 +3529,25 @@
         <v>124.9000</v>
       </c>
       <c r="D103" s="4">
-        <v>125.7362</v>
+        <v>125.7650</v>
       </c>
       <c r="E103" s="4">
-        <v>126.5366</v>
+        <v>126.6000</v>
       </c>
       <c r="F103" s="4">
-        <v>127.3673</v>
+        <v>127.3800</v>
       </c>
       <c r="G103" s="4">
-        <v>128.2422</v>
+        <v>128.3000</v>
       </c>
       <c r="H103" s="4">
-        <v>129.1529</v>
+        <v>129.2400</v>
       </c>
       <c r="I103" s="4">
-        <v>127.0244</v>
+        <v>127.1000</v>
       </c>
       <c r="J103" s="4">
-        <v>130.5849</v>
+        <v>130.4930</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
@@ -3561,25 +3561,25 @@
         <v>125.7000</v>
       </c>
       <c r="D104" s="4">
-        <v>126.4930</v>
+        <v>126.5400</v>
       </c>
       <c r="E104" s="4">
-        <v>127.3301</v>
+        <v>127.4000</v>
       </c>
       <c r="F104" s="4">
-        <v>128.2432</v>
+        <v>128.3000</v>
       </c>
       <c r="G104" s="4">
-        <v>129.1934</v>
+        <v>129.2000</v>
       </c>
       <c r="H104" s="4">
-        <v>130.1496</v>
+        <v>130.2000</v>
       </c>
       <c r="I104" s="4">
-        <v>126.9919</v>
+        <v>127.0000</v>
       </c>
       <c r="J104" s="4">
-        <v>130.7095</v>
+        <v>130.5500</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
@@ -3590,28 +3590,28 @@
         <v>3.0000</v>
       </c>
       <c r="C105" s="4">
-        <v>125.9241</v>
+        <v>125.9000</v>
       </c>
       <c r="D105" s="4">
-        <v>126.8663</v>
+        <v>126.8000</v>
       </c>
       <c r="E105" s="4">
-        <v>127.7890</v>
+        <v>127.7750</v>
       </c>
       <c r="F105" s="4">
-        <v>128.7789</v>
+        <v>128.7000</v>
       </c>
       <c r="G105" s="4">
-        <v>129.7439</v>
+        <v>129.7000</v>
       </c>
       <c r="H105" s="4">
-        <v>130.7468</v>
+        <v>130.6695</v>
       </c>
       <c r="I105" s="4">
-        <v>126.4170</v>
+        <v>126.3400</v>
       </c>
       <c r="J105" s="4">
-        <v>130.2921</v>
+        <v>130.2000</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
@@ -3622,28 +3622,28 @@
         <v>4.0000</v>
       </c>
       <c r="C106" s="4">
-        <v>126.4250</v>
+        <v>126.4000</v>
       </c>
       <c r="D106" s="4">
-        <v>127.3471</v>
+        <v>127.3000</v>
       </c>
       <c r="E106" s="4">
-        <v>128.3317</v>
+        <v>128.3000</v>
       </c>
       <c r="F106" s="4">
-        <v>129.2921</v>
+        <v>129.2500</v>
       </c>
       <c r="G106" s="4">
-        <v>130.2753</v>
+        <v>130.2500</v>
       </c>
       <c r="H106" s="4">
-        <v>131.2584</v>
+        <v>131.2500</v>
       </c>
       <c r="I106" s="4">
-        <v>126.1854</v>
+        <v>126.2000</v>
       </c>
       <c r="J106" s="4">
-        <v>129.8435</v>
+        <v>129.8500</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
@@ -3654,28 +3654,28 @@
         <v>1.0000</v>
       </c>
       <c r="C107" s="4">
-        <v>127.0071</v>
+        <v>127.0000</v>
       </c>
       <c r="D107" s="4">
-        <v>127.9113</v>
+        <v>127.9000</v>
       </c>
       <c r="E107" s="4">
-        <v>128.7680</v>
+        <v>128.7000</v>
       </c>
       <c r="F107" s="4">
-        <v>129.7089</v>
+        <v>129.6000</v>
       </c>
       <c r="G107" s="4">
-        <v>130.6340</v>
+        <v>130.5500</v>
       </c>
       <c r="H107" s="4">
-        <v>131.6940</v>
+        <v>131.6000</v>
       </c>
       <c r="I107" s="4">
-        <v>129.2540</v>
+        <v>129.2000</v>
       </c>
       <c r="J107" s="4">
-        <v>133.1080</v>
+        <v>133.1655</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
@@ -3686,28 +3686,28 @@
         <v>2.0000</v>
       </c>
       <c r="C108" s="4">
-        <v>127.6184</v>
+        <v>127.6000</v>
       </c>
       <c r="D108" s="4">
-        <v>128.5137</v>
+        <v>128.5000</v>
       </c>
       <c r="E108" s="4">
-        <v>129.4309</v>
+        <v>129.4000</v>
       </c>
       <c r="F108" s="4">
-        <v>130.3474</v>
+        <v>130.3000</v>
       </c>
       <c r="G108" s="4">
-        <v>131.3475</v>
+        <v>131.3000</v>
       </c>
       <c r="H108" s="4">
-        <v>132.3294</v>
+        <v>132.2730</v>
       </c>
       <c r="I108" s="4">
-        <v>129.0925</v>
+        <v>129.0000</v>
       </c>
       <c r="J108" s="4">
-        <v>132.8814</v>
+        <v>132.8000</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
@@ -3718,28 +3718,28 @@
         <v>3.0000</v>
       </c>
       <c r="C109" s="4">
-        <v>128.0041</v>
+        <v>128.0000</v>
       </c>
       <c r="D109" s="4">
-        <v>128.7674</v>
+        <v>128.7930</v>
       </c>
       <c r="E109" s="4">
-        <v>129.5970</v>
+        <v>129.5900</v>
       </c>
       <c r="F109" s="4">
-        <v>130.4701</v>
+        <v>130.4000</v>
       </c>
       <c r="G109" s="4">
-        <v>131.3811</v>
+        <v>131.3000</v>
       </c>
       <c r="H109" s="4">
-        <v>132.2634</v>
+        <v>132.1000</v>
       </c>
       <c r="I109" s="4">
-        <v>128.5573</v>
+        <v>128.4960</v>
       </c>
       <c r="J109" s="4">
-        <v>131.8610</v>
+        <v>131.7000</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
@@ -3750,28 +3750,28 @@
         <v>4.0000</v>
       </c>
       <c r="C110" s="4">
-        <v>128.3114</v>
+        <v>128.3000</v>
       </c>
       <c r="D110" s="4">
-        <v>128.9458</v>
+        <v>128.9525</v>
       </c>
       <c r="E110" s="4">
-        <v>129.6986</v>
+        <v>129.7000</v>
       </c>
       <c r="F110" s="4">
-        <v>130.4648</v>
+        <v>130.4430</v>
       </c>
       <c r="G110" s="4">
-        <v>131.1998</v>
+        <v>131.1930</v>
       </c>
       <c r="H110" s="4">
-        <v>131.9978</v>
+        <v>131.9835</v>
       </c>
       <c r="I110" s="4">
-        <v>128.2518</v>
+        <v>128.2000</v>
       </c>
       <c r="J110" s="4">
-        <v>130.8685</v>
+        <v>130.8150</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
@@ -3782,28 +3782,28 @@
         <v>1.0000</v>
       </c>
       <c r="C111" s="4">
-        <v>108.4964</v>
+        <v>108.5000</v>
       </c>
       <c r="D111" s="4">
-        <v>109.1517</v>
+        <v>109.1715</v>
       </c>
       <c r="E111" s="4">
-        <v>109.7642</v>
+        <v>109.7835</v>
       </c>
       <c r="F111" s="4">
-        <v>110.4367</v>
+        <v>110.3965</v>
       </c>
       <c r="G111" s="4">
-        <v>111.1259</v>
+        <v>111.0885</v>
       </c>
       <c r="H111" s="4">
-        <v>111.8267</v>
+        <v>111.7505</v>
       </c>
       <c r="I111" s="4">
-        <v>110.1159</v>
+        <v>110.1000</v>
       </c>
       <c r="J111" s="4">
-        <v>112.8377</v>
+        <v>112.7245</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
@@ -3817,25 +3817,25 @@
         <v>109.2000</v>
       </c>
       <c r="D112" s="4">
-        <v>109.8665</v>
+        <v>109.9000</v>
       </c>
       <c r="E112" s="4">
-        <v>110.5431</v>
+        <v>110.5500</v>
       </c>
       <c r="F112" s="4">
-        <v>111.2292</v>
+        <v>111.2070</v>
       </c>
       <c r="G112" s="4">
-        <v>111.9370</v>
+        <v>111.9645</v>
       </c>
       <c r="H112" s="4">
-        <v>112.6519</v>
+        <v>112.6500</v>
       </c>
       <c r="I112" s="4">
-        <v>110.1972</v>
+        <v>110.1820</v>
       </c>
       <c r="J112" s="4">
-        <v>113.0344</v>
+        <v>113.0000</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
@@ -3849,25 +3849,25 @@
         <v>109.6000</v>
       </c>
       <c r="D113" s="4">
-        <v>110.2677</v>
+        <v>110.3000</v>
       </c>
       <c r="E113" s="4">
-        <v>110.9608</v>
+        <v>110.9000</v>
       </c>
       <c r="F113" s="4">
-        <v>111.7034</v>
+        <v>111.7000</v>
       </c>
       <c r="G113" s="4">
-        <v>112.4450</v>
+        <v>112.4000</v>
       </c>
       <c r="H113" s="4">
-        <v>113.1841</v>
+        <v>113.0630</v>
       </c>
       <c r="I113" s="4">
-        <v>110.0033</v>
+        <v>110.0000</v>
       </c>
       <c r="J113" s="4">
-        <v>112.8309</v>
+        <v>112.7000</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
@@ -3881,25 +3881,25 @@
         <v>110.1000</v>
       </c>
       <c r="D114" s="4">
-        <v>110.7198</v>
+        <v>110.7000</v>
       </c>
       <c r="E114" s="4">
-        <v>111.4102</v>
+        <v>111.4000</v>
       </c>
       <c r="F114" s="4">
-        <v>112.1315</v>
+        <v>112.1000</v>
       </c>
       <c r="G114" s="4">
-        <v>112.8457</v>
+        <v>112.8125</v>
       </c>
       <c r="H114" s="4">
-        <v>113.5797</v>
+        <v>113.5395</v>
       </c>
       <c r="I114" s="4">
-        <v>109.8754</v>
+        <v>109.9000</v>
       </c>
       <c r="J114" s="4">
-        <v>112.5323</v>
+        <v>112.5000</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
@@ -3913,25 +3913,25 @@
         <v>110.7000</v>
       </c>
       <c r="D115" s="4">
-        <v>111.3244</v>
+        <v>111.3000</v>
       </c>
       <c r="E115" s="4">
-        <v>112.0070</v>
+        <v>112.0000</v>
       </c>
       <c r="F115" s="4">
-        <v>112.7148</v>
+        <v>112.7000</v>
       </c>
       <c r="G115" s="4">
-        <v>113.4429</v>
+        <v>113.4120</v>
       </c>
       <c r="H115" s="4">
-        <v>114.2419</v>
+        <v>114.1695</v>
       </c>
       <c r="I115" s="4">
-        <v>112.3693</v>
+        <v>112.4000</v>
       </c>
       <c r="J115" s="4">
-        <v>115.3079</v>
+        <v>115.2380</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
@@ -3942,28 +3942,28 @@
         <v>2.0000</v>
       </c>
       <c r="C116" s="4">
-        <v>111.4115</v>
+        <v>111.4400</v>
       </c>
       <c r="D116" s="4">
-        <v>112.0559</v>
+        <v>112.0500</v>
       </c>
       <c r="E116" s="4">
-        <v>112.7212</v>
+        <v>112.7050</v>
       </c>
       <c r="F116" s="4">
-        <v>113.4129</v>
+        <v>113.4260</v>
       </c>
       <c r="G116" s="4">
-        <v>114.1455</v>
+        <v>114.1050</v>
       </c>
       <c r="H116" s="4">
-        <v>114.9004</v>
+        <v>114.7650</v>
       </c>
       <c r="I116" s="4">
-        <v>112.3706</v>
+        <v>112.4000</v>
       </c>
       <c r="J116" s="4">
-        <v>115.2014</v>
+        <v>115.2000</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
@@ -3974,28 +3974,28 @@
         <v>3.0000</v>
       </c>
       <c r="C117" s="4">
-        <v>112.1685</v>
+        <v>112.1700</v>
       </c>
       <c r="D117" s="4">
-        <v>112.7501</v>
+        <v>112.7270</v>
       </c>
       <c r="E117" s="4">
-        <v>113.3881</v>
+        <v>113.4000</v>
       </c>
       <c r="F117" s="4">
-        <v>114.0711</v>
+        <v>114.0700</v>
       </c>
       <c r="G117" s="4">
-        <v>114.7732</v>
+        <v>114.7900</v>
       </c>
       <c r="H117" s="4">
-        <v>115.5035</v>
+        <v>115.4945</v>
       </c>
       <c r="I117" s="4">
-        <v>112.5352</v>
+        <v>112.5300</v>
       </c>
       <c r="J117" s="4">
-        <v>115.2361</v>
+        <v>115.3000</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
@@ -4009,25 +4009,25 @@
         <v>112.6600</v>
       </c>
       <c r="D118" s="4">
-        <v>113.2180</v>
+        <v>113.2000</v>
       </c>
       <c r="E118" s="4">
-        <v>113.8449</v>
+        <v>113.8370</v>
       </c>
       <c r="F118" s="4">
-        <v>114.4841</v>
+        <v>114.4790</v>
       </c>
       <c r="G118" s="4">
-        <v>115.1368</v>
+        <v>115.1665</v>
       </c>
       <c r="H118" s="4">
-        <v>115.8140</v>
+        <v>115.8000</v>
       </c>
       <c r="I118" s="4">
-        <v>112.4798</v>
+        <v>112.5000</v>
       </c>
       <c r="J118" s="4">
-        <v>114.8509</v>
+        <v>114.8250</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
@@ -4038,28 +4038,28 @@
         <v>1.0000</v>
       </c>
       <c r="C119" s="4">
-        <v>113.1014</v>
+        <v>113.1000</v>
       </c>
       <c r="D119" s="4">
-        <v>113.6556</v>
+        <v>113.6610</v>
       </c>
       <c r="E119" s="4">
-        <v>114.2155</v>
+        <v>114.2390</v>
       </c>
       <c r="F119" s="4">
-        <v>114.8099</v>
+        <v>114.8000</v>
       </c>
       <c r="G119" s="4">
-        <v>115.4262</v>
+        <v>115.4235</v>
       </c>
       <c r="H119" s="4">
-        <v>116.1040</v>
+        <v>116.2000</v>
       </c>
       <c r="I119" s="4">
-        <v>114.5488</v>
+        <v>114.5535</v>
       </c>
       <c r="J119" s="4">
-        <v>117.0869</v>
+        <v>117.1140</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
@@ -4070,28 +4070,28 @@
         <v>2.0000</v>
       </c>
       <c r="C120" s="4">
-        <v>113.3280</v>
+        <v>113.3300</v>
       </c>
       <c r="D120" s="4">
-        <v>113.7579</v>
+        <v>113.7530</v>
       </c>
       <c r="E120" s="4">
-        <v>114.2102</v>
+        <v>114.3000</v>
       </c>
       <c r="F120" s="4">
-        <v>114.7709</v>
+        <v>114.8850</v>
       </c>
       <c r="G120" s="4">
-        <v>115.3866</v>
+        <v>115.4830</v>
       </c>
       <c r="H120" s="4">
-        <v>115.9644</v>
+        <v>116.0830</v>
       </c>
       <c r="I120" s="4">
-        <v>114.0736</v>
+        <v>114.1000</v>
       </c>
       <c r="J120" s="4">
-        <v>116.3331</v>
+        <v>116.4760</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
@@ -4102,28 +4102,28 @@
         <v>3.0000</v>
       </c>
       <c r="C121" s="4">
-        <v>112.5760</v>
+        <v>112.5700</v>
       </c>
       <c r="D121" s="4">
-        <v>112.9831</v>
+        <v>112.9030</v>
       </c>
       <c r="E121" s="4">
-        <v>113.4759</v>
+        <v>113.3915</v>
       </c>
       <c r="F121" s="4">
-        <v>114.0312</v>
+        <v>113.9240</v>
       </c>
       <c r="G121" s="4">
-        <v>114.6064</v>
+        <v>114.5555</v>
       </c>
       <c r="H121" s="4">
-        <v>115.2001</v>
+        <v>115.2000</v>
       </c>
       <c r="I121" s="4">
-        <v>112.9082</v>
+        <v>112.8000</v>
       </c>
       <c r="J121" s="4">
-        <v>115.0064</v>
+        <v>114.9300</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
@@ -4134,28 +4134,28 @@
         <v>4.0000</v>
       </c>
       <c r="C122" s="4">
-        <v>112.7975</v>
+        <v>112.8000</v>
       </c>
       <c r="D122" s="4">
-        <v>113.1818</v>
+        <v>113.1965</v>
       </c>
       <c r="E122" s="4">
-        <v>113.6700</v>
+        <v>113.6575</v>
       </c>
       <c r="F122" s="4">
-        <v>114.1474</v>
+        <v>114.2165</v>
       </c>
       <c r="G122" s="4">
-        <v>114.6790</v>
+        <v>114.7500</v>
       </c>
       <c r="H122" s="4">
-        <v>115.2086</v>
+        <v>115.2935</v>
       </c>
       <c r="I122" s="4">
-        <v>112.7208</v>
+        <v>112.7000</v>
       </c>
       <c r="J122" s="4">
-        <v>114.4463</v>
+        <v>114.5350</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
@@ -4166,28 +4166,28 @@
         <v>1.0000</v>
       </c>
       <c r="C123" s="4">
-        <v>113.0945</v>
+        <v>113.0900</v>
       </c>
       <c r="D123" s="4">
-        <v>113.4475</v>
+        <v>113.4280</v>
       </c>
       <c r="E123" s="4">
-        <v>113.8361</v>
+        <v>113.8000</v>
       </c>
       <c r="F123" s="4">
-        <v>114.2661</v>
+        <v>114.2900</v>
       </c>
       <c r="G123" s="4">
-        <v>114.7292</v>
+        <v>114.8000</v>
       </c>
       <c r="H123" s="4">
-        <v>115.2196</v>
+        <v>115.1800</v>
       </c>
       <c r="I123" s="4">
-        <v>114.0782</v>
+        <v>114.0900</v>
       </c>
       <c r="J123" s="4">
-        <v>115.9475</v>
+        <v>115.8800</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
@@ -4198,28 +4198,28 @@
         <v>2.0000</v>
       </c>
       <c r="C124" s="4">
-        <v>113.4832</v>
+        <v>113.4800</v>
       </c>
       <c r="D124" s="4">
-        <v>113.8875</v>
+        <v>113.8190</v>
       </c>
       <c r="E124" s="4">
-        <v>114.3126</v>
+        <v>114.2500</v>
       </c>
       <c r="F124" s="4">
-        <v>114.8304</v>
+        <v>114.8000</v>
       </c>
       <c r="G124" s="4">
-        <v>115.3832</v>
+        <v>115.3000</v>
       </c>
       <c r="H124" s="4">
-        <v>115.9052</v>
+        <v>115.8000</v>
       </c>
       <c r="I124" s="4">
-        <v>114.1569</v>
+        <v>114.0630</v>
       </c>
       <c r="J124" s="4">
-        <v>116.1520</v>
+        <v>116.0250</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
@@ -4230,28 +4230,28 @@
         <v>3.0000</v>
       </c>
       <c r="C125" s="4">
-        <v>113.9814</v>
+        <v>113.9800</v>
       </c>
       <c r="D125" s="4">
-        <v>114.4532</v>
+        <v>114.4330</v>
       </c>
       <c r="E125" s="4">
-        <v>114.9378</v>
+        <v>114.9000</v>
       </c>
       <c r="F125" s="4">
-        <v>115.4991</v>
+        <v>115.4870</v>
       </c>
       <c r="G125" s="4">
-        <v>116.0452</v>
+        <v>116.0000</v>
       </c>
       <c r="H125" s="4">
-        <v>116.6352</v>
+        <v>116.5700</v>
       </c>
       <c r="I125" s="4">
-        <v>114.2731</v>
+        <v>114.2500</v>
       </c>
       <c r="J125" s="4">
-        <v>116.4267</v>
+        <v>116.3450</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
@@ -4262,28 +4262,28 @@
         <v>4.0000</v>
       </c>
       <c r="C126" s="4">
-        <v>104.3851</v>
+        <v>104.3800</v>
       </c>
       <c r="D126" s="4">
-        <v>104.8086</v>
+        <v>104.8000</v>
       </c>
       <c r="E126" s="4">
-        <v>105.2693</v>
+        <v>105.2630</v>
       </c>
       <c r="F126" s="4">
-        <v>105.7330</v>
+        <v>105.7080</v>
       </c>
       <c r="G126" s="4">
-        <v>106.2095</v>
+        <v>106.2000</v>
       </c>
       <c r="H126" s="4">
-        <v>106.7054</v>
+        <v>106.7000</v>
       </c>
       <c r="I126" s="4">
-        <v>104.2737</v>
+        <v>104.3000</v>
       </c>
       <c r="J126" s="4">
-        <v>106.0022</v>
+        <v>106.0365</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
@@ -4294,28 +4294,28 @@
         <v>1.0000</v>
       </c>
       <c r="C127" s="4">
-        <v>104.9360</v>
+        <v>104.9400</v>
       </c>
       <c r="D127" s="4">
-        <v>105.4241</v>
+        <v>105.4000</v>
       </c>
       <c r="E127" s="4">
-        <v>105.9035</v>
+        <v>105.8470</v>
       </c>
       <c r="F127" s="4">
-        <v>106.3716</v>
+        <v>106.4155</v>
       </c>
       <c r="G127" s="4">
-        <v>106.8816</v>
+        <v>106.9470</v>
       </c>
       <c r="H127" s="4">
-        <v>107.3775</v>
+        <v>107.4955</v>
       </c>
       <c r="I127" s="4">
-        <v>106.1825</v>
+        <v>106.1990</v>
       </c>
       <c r="J127" s="4">
-        <v>108.1747</v>
+        <v>108.3000</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
@@ -4326,28 +4326,28 @@
         <v>2.0000</v>
       </c>
       <c r="C128" s="4">
-        <v>105.8661</v>
+        <v>105.8600</v>
       </c>
       <c r="D128" s="4">
-        <v>106.4752</v>
+        <v>106.5000</v>
       </c>
       <c r="E128" s="4">
-        <v>107.0392</v>
+        <v>107.0440</v>
       </c>
       <c r="F128" s="4">
-        <v>107.6219</v>
+        <v>107.6000</v>
       </c>
       <c r="G128" s="4">
-        <v>108.2502</v>
+        <v>108.2600</v>
       </c>
       <c r="H128" s="4">
-        <v>108.8432</v>
+        <v>108.8590</v>
       </c>
       <c r="I128" s="4">
-        <v>106.7616</v>
+        <v>106.7460</v>
       </c>
       <c r="J128" s="4">
-        <v>109.0119</v>
+        <v>109.0720</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
@@ -4358,28 +4358,28 @@
         <v>3.0000</v>
       </c>
       <c r="C129" s="4">
-        <v>106.8232</v>
+        <v>106.8300</v>
       </c>
       <c r="D129" s="4">
-        <v>107.4085</v>
+        <v>107.4000</v>
       </c>
       <c r="E129" s="4">
-        <v>108.0253</v>
+        <v>108.0000</v>
       </c>
       <c r="F129" s="4">
-        <v>108.6570</v>
+        <v>108.6900</v>
       </c>
       <c r="G129" s="4">
-        <v>109.2548</v>
+        <v>109.3100</v>
       </c>
       <c r="H129" s="4">
-        <v>109.8856</v>
+        <v>109.9500</v>
       </c>
       <c r="I129" s="4">
-        <v>107.1090</v>
+        <v>107.1000</v>
       </c>
       <c r="J129" s="4">
-        <v>109.5507</v>
+        <v>109.6450</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
@@ -4390,28 +4390,28 @@
         <v>4.0000</v>
       </c>
       <c r="C130" s="4">
-        <v>107.3153</v>
+        <v>107.3300</v>
       </c>
       <c r="D130" s="4">
-        <v>107.8868</v>
+        <v>107.9000</v>
       </c>
       <c r="E130" s="4">
-        <v>108.5323</v>
+        <v>108.5000</v>
       </c>
       <c r="F130" s="4">
-        <v>109.1717</v>
+        <v>109.1380</v>
       </c>
       <c r="G130" s="4">
-        <v>109.7978</v>
+        <v>109.8000</v>
       </c>
       <c r="H130" s="4">
-        <v>110.3609</v>
+        <v>110.3380</v>
       </c>
       <c r="I130" s="4">
-        <v>107.0231</v>
+        <v>107.0000</v>
       </c>
       <c r="J130" s="4">
-        <v>109.4493</v>
+        <v>109.4150</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
@@ -4422,28 +4422,28 @@
         <v>1.0000</v>
       </c>
       <c r="C131" s="4">
-        <v>107.7753</v>
+        <v>107.7700</v>
       </c>
       <c r="D131" s="4">
-        <v>108.3865</v>
+        <v>108.4000</v>
       </c>
       <c r="E131" s="4">
-        <v>108.9738</v>
+        <v>108.9100</v>
       </c>
       <c r="F131" s="4">
-        <v>109.5462</v>
+        <v>109.5535</v>
       </c>
       <c r="G131" s="4">
-        <v>110.1366</v>
+        <v>110.0950</v>
       </c>
       <c r="H131" s="4">
-        <v>110.6756</v>
+        <v>110.7000</v>
       </c>
       <c r="I131" s="4">
-        <v>109.2823</v>
+        <v>109.2800</v>
       </c>
       <c r="J131" s="4">
-        <v>111.5298</v>
+        <v>111.6600</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
@@ -4457,25 +4457,25 @@
         <v>108.5900</v>
       </c>
       <c r="D132" s="4">
-        <v>109.2147</v>
+        <v>109.2000</v>
       </c>
       <c r="E132" s="4">
-        <v>109.7888</v>
+        <v>109.7000</v>
       </c>
       <c r="F132" s="4">
-        <v>110.4163</v>
+        <v>110.3000</v>
       </c>
       <c r="G132" s="4">
-        <v>110.9630</v>
+        <v>110.9000</v>
       </c>
       <c r="H132" s="4">
-        <v>111.5021</v>
+        <v>111.4600</v>
       </c>
       <c r="I132" s="4">
-        <v>109.4799</v>
+        <v>109.4400</v>
       </c>
       <c r="J132" s="4">
-        <v>111.7964</v>
+        <v>111.7695</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
@@ -4486,28 +4486,28 @@
         <v>3.0000</v>
       </c>
       <c r="C133" s="4">
-        <v>109.2675</v>
+        <v>109.2600</v>
       </c>
       <c r="D133" s="4">
-        <v>109.7341</v>
+        <v>109.7625</v>
       </c>
       <c r="E133" s="4">
-        <v>110.2948</v>
+        <v>110.3000</v>
       </c>
       <c r="F133" s="4">
-        <v>110.8562</v>
+        <v>110.8815</v>
       </c>
       <c r="G133" s="4">
-        <v>111.4302</v>
+        <v>111.4450</v>
       </c>
       <c r="H133" s="4">
-        <v>112.0362</v>
+        <v>112.0555</v>
       </c>
       <c r="I133" s="4">
-        <v>109.4778</v>
+        <v>109.5000</v>
       </c>
       <c r="J133" s="4">
-        <v>111.7252</v>
+        <v>111.7000</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
@@ -4518,28 +4518,28 @@
         <v>4.0000</v>
       </c>
       <c r="C134" s="4">
-        <v>109.8014</v>
+        <v>109.8000</v>
       </c>
       <c r="D134" s="4">
-        <v>110.1432</v>
+        <v>110.2000</v>
       </c>
       <c r="E134" s="4">
-        <v>110.6342</v>
+        <v>110.7000</v>
       </c>
       <c r="F134" s="4">
-        <v>111.0873</v>
+        <v>111.1700</v>
       </c>
       <c r="G134" s="4">
-        <v>111.5585</v>
+        <v>111.5100</v>
       </c>
       <c r="H134" s="4">
-        <v>112.0595</v>
+        <v>112.1150</v>
       </c>
       <c r="I134" s="4">
-        <v>109.4403</v>
+        <v>109.4200</v>
       </c>
       <c r="J134" s="4">
-        <v>111.3237</v>
+        <v>111.3250</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
@@ -4550,28 +4550,28 @@
         <v>1.0000</v>
       </c>
       <c r="C135" s="4">
-        <v>109.7379</v>
+        <v>109.7400</v>
       </c>
       <c r="D135" s="4">
-        <v>110.1843</v>
+        <v>110.1950</v>
       </c>
       <c r="E135" s="4">
-        <v>110.6558</v>
+        <v>110.6000</v>
       </c>
       <c r="F135" s="4">
-        <v>111.0943</v>
+        <v>111.0410</v>
       </c>
       <c r="G135" s="4">
-        <v>111.6051</v>
+        <v>111.5390</v>
       </c>
       <c r="H135" s="4">
-        <v>112.1684</v>
+        <v>112.1600</v>
       </c>
       <c r="I135" s="4">
-        <v>110.9409</v>
+        <v>110.8955</v>
       </c>
       <c r="J135" s="4">
-        <v>113.0360</v>
+        <v>113.0500</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
@@ -4582,28 +4582,28 @@
         <v>2.0000</v>
       </c>
       <c r="C136" s="4">
-        <v>110.0181</v>
+        <v>110.0200</v>
       </c>
       <c r="D136" s="4">
-        <v>110.5317</v>
+        <v>110.4700</v>
       </c>
       <c r="E136" s="4">
-        <v>111.0302</v>
+        <v>110.9375</v>
       </c>
       <c r="F136" s="4">
-        <v>111.5699</v>
+        <v>111.5000</v>
       </c>
       <c r="G136" s="4">
-        <v>112.1683</v>
+        <v>112.1000</v>
       </c>
       <c r="H136" s="4">
-        <v>112.7600</v>
+        <v>112.6000</v>
       </c>
       <c r="I136" s="4">
-        <v>110.7961</v>
+        <v>110.7100</v>
       </c>
       <c r="J136" s="4">
-        <v>113.0519</v>
+        <v>112.9000</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
@@ -4614,28 +4614,28 @@
         <v>3.0000</v>
       </c>
       <c r="C137" s="4">
-        <v>110.4646</v>
+        <v>110.4600</v>
       </c>
       <c r="D137" s="4">
-        <v>110.9761</v>
+        <v>110.9000</v>
       </c>
       <c r="E137" s="4">
-        <v>111.4377</v>
+        <v>111.4000</v>
       </c>
       <c r="F137" s="4">
-        <v>111.9845</v>
+        <v>111.9000</v>
       </c>
       <c r="G137" s="4">
-        <v>112.5132</v>
+        <v>112.5000</v>
       </c>
       <c r="H137" s="4">
-        <v>113.0709</v>
+        <v>113.0000</v>
       </c>
       <c r="I137" s="4">
-        <v>110.7674</v>
+        <v>110.7330</v>
       </c>
       <c r="J137" s="4">
-        <v>112.6924</v>
+        <v>112.7630</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
@@ -4646,28 +4646,28 @@
         <v>4.0000</v>
       </c>
       <c r="C138" s="4">
-        <v>110.7926</v>
+        <v>110.7900</v>
       </c>
       <c r="D138" s="4">
-        <v>111.2513</v>
+        <v>111.2580</v>
       </c>
       <c r="E138" s="4">
-        <v>111.7843</v>
+        <v>111.8000</v>
       </c>
       <c r="F138" s="4">
-        <v>112.2716</v>
+        <v>112.3100</v>
       </c>
       <c r="G138" s="4">
-        <v>112.7555</v>
+        <v>112.8390</v>
       </c>
       <c r="H138" s="4">
-        <v>113.2747</v>
+        <v>113.4000</v>
       </c>
       <c r="I138" s="4">
-        <v>110.6703</v>
+        <v>110.6700</v>
       </c>
       <c r="J138" s="4">
-        <v>112.5187</v>
+        <v>112.5040</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
@@ -4678,28 +4678,28 @@
         <v>1.0000</v>
       </c>
       <c r="C139" s="4">
-        <v>111.2417</v>
+        <v>111.2400</v>
       </c>
       <c r="D139" s="4">
-        <v>111.7866</v>
+        <v>111.7920</v>
       </c>
       <c r="E139" s="4">
-        <v>112.2756</v>
+        <v>112.2780</v>
       </c>
       <c r="F139" s="4">
-        <v>112.7355</v>
+        <v>112.7250</v>
       </c>
       <c r="G139" s="4">
-        <v>113.2364</v>
+        <v>113.2610</v>
       </c>
       <c r="H139" s="4">
-        <v>113.8057</v>
+        <v>113.8500</v>
       </c>
       <c r="I139" s="4">
-        <v>112.5546</v>
+        <v>112.5050</v>
       </c>
       <c r="J139" s="4">
-        <v>114.7004</v>
+        <v>114.7710</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
@@ -4710,28 +4710,28 @@
         <v>2.0000</v>
       </c>
       <c r="C140" s="4">
-        <v>111.9541</v>
+        <v>111.9500</v>
       </c>
       <c r="D140" s="4">
-        <v>112.4339</v>
+        <v>112.4100</v>
       </c>
       <c r="E140" s="4">
-        <v>112.8846</v>
+        <v>112.8840</v>
       </c>
       <c r="F140" s="4">
-        <v>113.3971</v>
+        <v>113.3595</v>
       </c>
       <c r="G140" s="4">
-        <v>113.9601</v>
+        <v>113.8850</v>
       </c>
       <c r="H140" s="4">
-        <v>114.4755</v>
+        <v>114.4050</v>
       </c>
       <c r="I140" s="4">
-        <v>112.6549</v>
+        <v>112.6000</v>
       </c>
       <c r="J140" s="4">
-        <v>114.7121</v>
+        <v>114.6000</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
@@ -4742,28 +4742,28 @@
         <v>3.0000</v>
       </c>
       <c r="C141" s="4">
-        <v>112.1734</v>
+        <v>112.1700</v>
       </c>
       <c r="D141" s="4">
-        <v>112.5851</v>
+        <v>112.5610</v>
       </c>
       <c r="E141" s="4">
-        <v>113.0175</v>
+        <v>112.9800</v>
       </c>
       <c r="F141" s="4">
-        <v>113.5572</v>
+        <v>113.5000</v>
       </c>
       <c r="G141" s="4">
-        <v>114.0780</v>
+        <v>114.0000</v>
       </c>
       <c r="H141" s="4">
-        <v>114.5572</v>
+        <v>114.5000</v>
       </c>
       <c r="I141" s="4">
-        <v>112.4283</v>
+        <v>112.4000</v>
       </c>
       <c r="J141" s="4">
-        <v>114.3471</v>
+        <v>114.2500</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
@@ -4774,28 +4774,28 @@
         <v>4.0000</v>
       </c>
       <c r="C142" s="4">
-        <v>112.6747</v>
+        <v>112.6700</v>
       </c>
       <c r="D142" s="4">
-        <v>113.1098</v>
+        <v>113.1000</v>
       </c>
       <c r="E142" s="4">
-        <v>113.6174</v>
+        <v>113.6000</v>
       </c>
       <c r="F142" s="4">
-        <v>114.1147</v>
+        <v>114.0875</v>
       </c>
       <c r="G142" s="4">
-        <v>114.6205</v>
+        <v>114.5700</v>
       </c>
       <c r="H142" s="4">
-        <v>115.1314</v>
+        <v>115.0850</v>
       </c>
       <c r="I142" s="4">
-        <v>112.4481</v>
+        <v>112.4310</v>
       </c>
       <c r="J142" s="4">
-        <v>114.3665</v>
+        <v>114.2950</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
@@ -4806,28 +4806,28 @@
         <v>1.0000</v>
       </c>
       <c r="C143" s="4">
-        <v>106.1639</v>
+        <v>106.1590</v>
       </c>
       <c r="D143" s="4">
-        <v>106.5462</v>
+        <v>106.5290</v>
       </c>
       <c r="E143" s="4">
-        <v>106.9224</v>
+        <v>106.9000</v>
       </c>
       <c r="F143" s="4">
-        <v>107.3146</v>
+        <v>107.3000</v>
       </c>
       <c r="G143" s="4">
-        <v>107.8134</v>
+        <v>107.7380</v>
       </c>
       <c r="H143" s="4">
-        <v>108.2571</v>
+        <v>108.2000</v>
       </c>
       <c r="I143" s="4">
-        <v>107.1237</v>
+        <v>107.1370</v>
       </c>
       <c r="J143" s="4">
-        <v>108.8965</v>
+        <v>108.9620</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
@@ -4838,28 +4838,28 @@
         <v>2.0000</v>
       </c>
       <c r="C144" s="4">
-        <v>106.9196</v>
+        <v>106.9200</v>
       </c>
       <c r="D144" s="4">
-        <v>107.4432</v>
+        <v>107.4945</v>
       </c>
       <c r="E144" s="4">
-        <v>107.9103</v>
+        <v>107.9440</v>
       </c>
       <c r="F144" s="4">
-        <v>108.4056</v>
+        <v>108.4200</v>
       </c>
       <c r="G144" s="4">
-        <v>108.9531</v>
+        <v>108.9550</v>
       </c>
       <c r="H144" s="4">
-        <v>109.4562</v>
+        <v>109.4650</v>
       </c>
       <c r="I144" s="4">
-        <v>107.6505</v>
+        <v>107.6930</v>
       </c>
       <c r="J144" s="4">
-        <v>109.7017</v>
+        <v>109.7440</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
@@ -4870,28 +4870,28 @@
         <v>3.0000</v>
       </c>
       <c r="C145" s="4">
-        <v>108.1574</v>
+        <v>108.1600</v>
       </c>
       <c r="D145" s="4">
-        <v>108.6990</v>
+        <v>108.6940</v>
       </c>
       <c r="E145" s="4">
-        <v>109.2742</v>
+        <v>109.3000</v>
       </c>
       <c r="F145" s="4">
-        <v>109.8933</v>
+        <v>109.8620</v>
       </c>
       <c r="G145" s="4">
-        <v>110.5023</v>
+        <v>110.4650</v>
       </c>
       <c r="H145" s="4">
-        <v>111.0798</v>
+        <v>111.0340</v>
       </c>
       <c r="I145" s="4">
-        <v>108.3339</v>
+        <v>108.3320</v>
       </c>
       <c r="J145" s="4">
-        <v>110.7140</v>
+        <v>110.8000</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
@@ -4902,28 +4902,28 @@
         <v>4.0000</v>
       </c>
       <c r="C146" s="4">
-        <v>108.5083</v>
+        <v>108.5100</v>
       </c>
       <c r="D146" s="4">
-        <v>108.9947</v>
+        <v>108.9950</v>
       </c>
       <c r="E146" s="4">
-        <v>109.5642</v>
+        <v>109.5890</v>
       </c>
       <c r="F146" s="4">
-        <v>110.1112</v>
+        <v>110.1330</v>
       </c>
       <c r="G146" s="4">
-        <v>110.6554</v>
+        <v>110.6800</v>
       </c>
       <c r="H146" s="4">
-        <v>111.2325</v>
+        <v>111.1740</v>
       </c>
       <c r="I146" s="4">
-        <v>108.2315</v>
+        <v>108.2260</v>
       </c>
       <c r="J146" s="4">
-        <v>110.4099</v>
+        <v>110.4115</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
@@ -4934,28 +4934,28 @@
         <v>1.0000</v>
       </c>
       <c r="C147" s="4">
-        <v>109.1103</v>
+        <v>109.0900</v>
       </c>
       <c r="D147" s="4">
-        <v>109.6737</v>
+        <v>109.6320</v>
       </c>
       <c r="E147" s="4">
-        <v>110.2511</v>
+        <v>110.1550</v>
       </c>
       <c r="F147" s="4">
-        <v>110.8013</v>
+        <v>110.6960</v>
       </c>
       <c r="G147" s="4">
-        <v>111.3630</v>
+        <v>111.2170</v>
       </c>
       <c r="H147" s="4">
-        <v>111.9768</v>
+        <v>111.8000</v>
       </c>
       <c r="I147" s="4">
-        <v>110.5427</v>
+        <v>110.4460</v>
       </c>
       <c r="J147" s="4">
-        <v>112.8962</v>
+        <v>112.7650</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
@@ -4969,25 +4969,25 @@
         <v>110.0400</v>
       </c>
       <c r="D148" s="4">
-        <v>110.6903</v>
+        <v>110.7000</v>
       </c>
       <c r="E148" s="4">
-        <v>111.2930</v>
+        <v>111.2720</v>
       </c>
       <c r="F148" s="4">
-        <v>111.9244</v>
+        <v>111.8985</v>
       </c>
       <c r="G148" s="4">
-        <v>112.5454</v>
+        <v>112.5065</v>
       </c>
       <c r="H148" s="4">
-        <v>113.1634</v>
+        <v>113.1700</v>
       </c>
       <c r="I148" s="4">
-        <v>110.9965</v>
+        <v>110.9740</v>
       </c>
       <c r="J148" s="4">
-        <v>113.4240</v>
+        <v>113.3940</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
@@ -4998,28 +4998,28 @@
         <v>3.0000</v>
       </c>
       <c r="C149" s="4">
-        <v>111.6177</v>
+        <v>111.6100</v>
       </c>
       <c r="D149" s="4">
-        <v>112.1891</v>
+        <v>112.1960</v>
       </c>
       <c r="E149" s="4">
-        <v>112.8304</v>
+        <v>112.8030</v>
       </c>
       <c r="F149" s="4">
-        <v>113.4981</v>
+        <v>113.4840</v>
       </c>
       <c r="G149" s="4">
-        <v>114.1417</v>
+        <v>114.0325</v>
       </c>
       <c r="H149" s="4">
-        <v>114.7691</v>
+        <v>114.7150</v>
       </c>
       <c r="I149" s="4">
-        <v>111.8620</v>
+        <v>111.8850</v>
       </c>
       <c r="J149" s="4">
-        <v>114.4394</v>
+        <v>114.4000</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
@@ -5030,28 +5030,28 @@
         <v>4.0000</v>
       </c>
       <c r="C150" s="4">
-        <v>112.5189</v>
+        <v>112.5200</v>
       </c>
       <c r="D150" s="4">
-        <v>113.2379</v>
+        <v>113.2510</v>
       </c>
       <c r="E150" s="4">
-        <v>113.9504</v>
+        <v>113.9700</v>
       </c>
       <c r="F150" s="4">
-        <v>114.6160</v>
+        <v>114.5390</v>
       </c>
       <c r="G150" s="4">
-        <v>115.2666</v>
+        <v>115.1635</v>
       </c>
       <c r="H150" s="4">
-        <v>115.9314</v>
+        <v>115.7285</v>
       </c>
       <c r="I150" s="4">
-        <v>112.0813</v>
+        <v>112.0955</v>
       </c>
       <c r="J150" s="4">
-        <v>114.9483</v>
+        <v>114.8270</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
@@ -5062,28 +5062,28 @@
         <v>1.0000</v>
       </c>
       <c r="C151" s="4">
-        <v>113.4099</v>
+        <v>113.4100</v>
       </c>
       <c r="D151" s="4">
-        <v>114.0895</v>
+        <v>114.1000</v>
       </c>
       <c r="E151" s="4">
-        <v>114.7333</v>
+        <v>114.7055</v>
       </c>
       <c r="F151" s="4">
-        <v>115.3667</v>
+        <v>115.3300</v>
       </c>
       <c r="G151" s="4">
-        <v>116.0213</v>
+        <v>115.9125</v>
       </c>
       <c r="H151" s="4">
-        <v>116.7404</v>
+        <v>116.6000</v>
       </c>
       <c r="I151" s="4">
-        <v>115.0586</v>
+        <v>115.0210</v>
       </c>
       <c r="J151" s="4">
-        <v>117.6931</v>
+        <v>117.5430</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
@@ -5094,28 +5094,28 @@
         <v>2.0000</v>
       </c>
       <c r="C152" s="4">
-        <v>114.4488</v>
+        <v>114.4500</v>
       </c>
       <c r="D152" s="4">
-        <v>115.1963</v>
+        <v>115.2030</v>
       </c>
       <c r="E152" s="4">
-        <v>115.8728</v>
+        <v>115.8825</v>
       </c>
       <c r="F152" s="4">
-        <v>116.5707</v>
+        <v>116.5040</v>
       </c>
       <c r="G152" s="4">
-        <v>117.2967</v>
+        <v>117.1665</v>
       </c>
       <c r="H152" s="4">
-        <v>117.9473</v>
+        <v>117.8073</v>
       </c>
       <c r="I152" s="4">
-        <v>115.5113</v>
+        <v>115.4993</v>
       </c>
       <c r="J152" s="4">
-        <v>118.2236</v>
+        <v>118.1042</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
@@ -5126,28 +5126,28 @@
         <v>3.0000</v>
       </c>
       <c r="C153" s="4">
-        <v>115.9098</v>
+        <v>115.9100</v>
       </c>
       <c r="D153" s="4">
-        <v>116.6817</v>
+        <v>116.7080</v>
       </c>
       <c r="E153" s="4">
-        <v>117.4402</v>
+        <v>117.4000</v>
       </c>
       <c r="F153" s="4">
-        <v>118.2518</v>
+        <v>118.1532</v>
       </c>
       <c r="G153" s="4">
-        <v>118.9921</v>
+        <v>118.8363</v>
       </c>
       <c r="H153" s="4">
-        <v>119.7151</v>
+        <v>119.4994</v>
       </c>
       <c r="I153" s="4">
-        <v>116.2410</v>
+        <v>116.2357</v>
       </c>
       <c r="J153" s="4">
-        <v>119.2721</v>
+        <v>119.1416</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
@@ -5158,28 +5158,28 @@
         <v>4.0000</v>
       </c>
       <c r="C154" s="4">
-        <v>116.4301</v>
+        <v>116.4300</v>
       </c>
       <c r="D154" s="4">
-        <v>116.9872</v>
+        <v>117.0585</v>
       </c>
       <c r="E154" s="4">
-        <v>117.7621</v>
+        <v>117.7772</v>
       </c>
       <c r="F154" s="4">
-        <v>118.4435</v>
+        <v>118.4031</v>
       </c>
       <c r="G154" s="4">
-        <v>119.1039</v>
+        <v>119.0777</v>
       </c>
       <c r="H154" s="4">
-        <v>119.7902</v>
+        <v>119.7155</v>
       </c>
       <c r="I154" s="4">
-        <v>116.0901</v>
+        <v>116.0912</v>
       </c>
       <c r="J154" s="4">
-        <v>118.7831</v>
+        <v>118.7701</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
@@ -5190,28 +5190,28 @@
         <v>1.0000</v>
       </c>
       <c r="C155" s="4">
-        <v>116.8894</v>
+        <v>116.8900</v>
       </c>
       <c r="D155" s="4">
-        <v>117.5693</v>
+        <v>117.5907</v>
       </c>
       <c r="E155" s="4">
-        <v>118.2013</v>
+        <v>118.2203</v>
       </c>
       <c r="F155" s="4">
-        <v>118.8262</v>
+        <v>118.8290</v>
       </c>
       <c r="G155" s="4">
-        <v>119.4834</v>
+        <v>119.4477</v>
       </c>
       <c r="H155" s="4">
-        <v>120.1181</v>
+        <v>120.0968</v>
       </c>
       <c r="I155" s="4">
-        <v>118.5283</v>
+        <v>118.5007</v>
       </c>
       <c r="J155" s="4">
-        <v>121.0526</v>
+        <v>121.0163</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
@@ -5222,28 +5222,28 @@
         <v>2.0000</v>
       </c>
       <c r="C156" s="4">
-        <v>118.0694</v>
+        <v>118.0700</v>
       </c>
       <c r="D156" s="4">
-        <v>118.8159</v>
+        <v>118.8100</v>
       </c>
       <c r="E156" s="4">
-        <v>119.4654</v>
+        <v>119.4829</v>
       </c>
       <c r="F156" s="4">
-        <v>120.0971</v>
+        <v>120.1184</v>
       </c>
       <c r="G156" s="4">
-        <v>120.8512</v>
+        <v>120.8271</v>
       </c>
       <c r="H156" s="4">
-        <v>121.5022</v>
+        <v>121.5334</v>
       </c>
       <c r="I156" s="4">
-        <v>119.1038</v>
+        <v>119.1136</v>
       </c>
       <c r="J156" s="4">
-        <v>121.7673</v>
+        <v>121.8490</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
@@ -5254,28 +5254,28 @@
         <v>3.0000</v>
       </c>
       <c r="C157" s="4">
-        <v>119.5390</v>
+        <v>119.5400</v>
       </c>
       <c r="D157" s="4">
-        <v>120.0540</v>
+        <v>120.1733</v>
       </c>
       <c r="E157" s="4">
-        <v>120.6871</v>
+        <v>120.8000</v>
       </c>
       <c r="F157" s="4">
-        <v>121.4238</v>
+        <v>121.5811</v>
       </c>
       <c r="G157" s="4">
-        <v>122.0949</v>
+        <v>122.2430</v>
       </c>
       <c r="H157" s="4">
-        <v>122.7252</v>
+        <v>122.8980</v>
       </c>
       <c r="I157" s="4">
-        <v>119.7053</v>
+        <v>119.8000</v>
       </c>
       <c r="J157" s="4">
-        <v>122.3557</v>
+        <v>122.5120</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
@@ -5286,28 +5286,28 @@
         <v>4.0000</v>
       </c>
       <c r="C158" s="4">
-        <v>119.7599</v>
+        <v>119.7600</v>
       </c>
       <c r="D158" s="4">
-        <v>120.3801</v>
+        <v>120.4000</v>
       </c>
       <c r="E158" s="4">
-        <v>121.1139</v>
+        <v>121.1332</v>
       </c>
       <c r="F158" s="4">
-        <v>121.7341</v>
+        <v>121.7500</v>
       </c>
       <c r="G158" s="4">
-        <v>122.3639</v>
+        <v>122.4245</v>
       </c>
       <c r="H158" s="4">
-        <v>122.9814</v>
+        <v>123.1000</v>
       </c>
       <c r="I158" s="4">
-        <v>119.5702</v>
+        <v>119.6000</v>
       </c>
       <c r="J158" s="4">
-        <v>122.0501</v>
+        <v>122.0868</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
@@ -5318,28 +5318,28 @@
         <v>1.0000</v>
       </c>
       <c r="C159" s="4">
-        <v>120.6006</v>
+        <v>120.6000</v>
       </c>
       <c r="D159" s="4">
-        <v>121.3336</v>
+        <v>121.3051</v>
       </c>
       <c r="E159" s="4">
-        <v>121.9870</v>
+        <v>121.9793</v>
       </c>
       <c r="F159" s="4">
-        <v>122.6329</v>
+        <v>122.7000</v>
       </c>
       <c r="G159" s="4">
-        <v>123.2231</v>
+        <v>123.2909</v>
       </c>
       <c r="H159" s="4">
-        <v>123.8837</v>
+        <v>124.0279</v>
       </c>
       <c r="I159" s="4">
-        <v>122.3296</v>
+        <v>122.3065</v>
       </c>
       <c r="J159" s="4">
-        <v>124.8624</v>
+        <v>124.8915</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
@@ -5353,25 +5353,25 @@
         <v>121.3400</v>
       </c>
       <c r="D160" s="4">
-        <v>122.1044</v>
+        <v>122.1091</v>
       </c>
       <c r="E160" s="4">
-        <v>122.8098</v>
+        <v>122.8272</v>
       </c>
       <c r="F160" s="4">
-        <v>123.4729</v>
+        <v>123.5156</v>
       </c>
       <c r="G160" s="4">
-        <v>124.2486</v>
+        <v>124.2580</v>
       </c>
       <c r="H160" s="4">
-        <v>124.8830</v>
+        <v>125.0295</v>
       </c>
       <c r="I160" s="4">
-        <v>122.5245</v>
+        <v>122.4600</v>
       </c>
       <c r="J160" s="4">
-        <v>125.3108</v>
+        <v>125.3912</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
@@ -5382,28 +5382,28 @@
         <v>3.0000</v>
       </c>
       <c r="C161" s="4">
-        <v>121.9287</v>
+        <v>121.9300</v>
       </c>
       <c r="D161" s="4">
-        <v>122.8418</v>
+        <v>122.7149</v>
       </c>
       <c r="E161" s="4">
-        <v>123.6018</v>
+        <v>123.4447</v>
       </c>
       <c r="F161" s="4">
-        <v>124.3026</v>
+        <v>124.1787</v>
       </c>
       <c r="G161" s="4">
-        <v>124.8943</v>
+        <v>124.9172</v>
       </c>
       <c r="H161" s="4">
-        <v>125.6034</v>
+        <v>125.4486</v>
       </c>
       <c r="I161" s="4">
-        <v>122.4702</v>
+        <v>122.4113</v>
       </c>
       <c r="J161" s="4">
-        <v>125.2388</v>
+        <v>125.1520</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
@@ -5414,28 +5414,28 @@
         <v>4.0000</v>
       </c>
       <c r="C162" s="4">
-        <v>123.1982</v>
+        <v>123.2000</v>
       </c>
       <c r="D162" s="4">
-        <v>123.9472</v>
+        <v>123.9931</v>
       </c>
       <c r="E162" s="4">
-        <v>124.5921</v>
+        <v>124.6150</v>
       </c>
       <c r="F162" s="4">
-        <v>125.1253</v>
+        <v>125.2000</v>
       </c>
       <c r="G162" s="4">
-        <v>125.7360</v>
+        <v>125.8000</v>
       </c>
       <c r="H162" s="4">
-        <v>126.3753</v>
+        <v>126.4000</v>
       </c>
       <c r="I162" s="4">
-        <v>122.6908</v>
+        <v>122.6866</v>
       </c>
       <c r="J162" s="4">
-        <v>125.3669</v>
+        <v>125.4755</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
@@ -5446,28 +5446,28 @@
         <v>1.0000</v>
       </c>
       <c r="C163" s="4">
-        <v>123.1080</v>
+        <v>123.1100</v>
       </c>
       <c r="D163" s="4">
-        <v>123.3177</v>
+        <v>123.3000</v>
       </c>
       <c r="E163" s="4">
-        <v>123.5434</v>
+        <v>123.6319</v>
       </c>
       <c r="F163" s="4">
-        <v>123.9765</v>
+        <v>124.0622</v>
       </c>
       <c r="G163" s="4">
-        <v>124.4067</v>
+        <v>124.3636</v>
       </c>
       <c r="H163" s="4">
-        <v>124.9201</v>
+        <v>124.8449</v>
       </c>
       <c r="I163" s="4">
-        <v>123.8643</v>
+        <v>123.9194</v>
       </c>
       <c r="J163" s="4">
-        <v>125.6409</v>
+        <v>125.5615</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
@@ -5478,28 +5478,28 @@
         <v>2.0000</v>
       </c>
       <c r="C164" s="4">
-        <v>124.1886</v>
+        <v>124.1900</v>
       </c>
       <c r="D164" s="4">
-        <v>124.4415</v>
+        <v>124.4529</v>
       </c>
       <c r="E164" s="4">
-        <v>124.9431</v>
+        <v>124.8000</v>
       </c>
       <c r="F164" s="4">
-        <v>125.4359</v>
+        <v>125.2901</v>
       </c>
       <c r="G164" s="4">
-        <v>125.9921</v>
+        <v>125.7304</v>
       </c>
       <c r="H164" s="4">
-        <v>126.4748</v>
+        <v>126.2817</v>
       </c>
       <c r="I164" s="4">
-        <v>124.7396</v>
+        <v>124.6701</v>
       </c>
       <c r="J164" s="4">
-        <v>126.7568</v>
+        <v>126.6999</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
@@ -5510,28 +5510,28 @@
         <v>3.0000</v>
       </c>
       <c r="C165" s="4">
-        <v>109.7297</v>
+        <v>109.7300</v>
       </c>
       <c r="D165" s="4">
-        <v>110.1841</v>
+        <v>110.1663</v>
       </c>
       <c r="E165" s="4">
-        <v>110.5734</v>
+        <v>110.4913</v>
       </c>
       <c r="F165" s="4">
-        <v>111.0000</v>
+        <v>110.9315</v>
       </c>
       <c r="G165" s="4">
-        <v>111.3982</v>
+        <v>111.1289</v>
       </c>
       <c r="H165" s="4">
-        <v>111.9149</v>
+        <v>111.7721</v>
       </c>
       <c r="I165" s="4">
-        <v>110.0488</v>
+        <v>110.0000</v>
       </c>
       <c r="J165" s="4">
-        <v>111.7240</v>
+        <v>111.5508</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
@@ -5545,25 +5545,25 @@
         <v>109.8700</v>
       </c>
       <c r="D166" s="4">
-        <v>110.2618</v>
+        <v>110.2212</v>
       </c>
       <c r="E166" s="4">
-        <v>110.6261</v>
+        <v>110.6238</v>
       </c>
       <c r="F166" s="4">
-        <v>110.9511</v>
+        <v>110.9642</v>
       </c>
       <c r="G166" s="4">
-        <v>111.3570</v>
+        <v>111.3459</v>
       </c>
       <c r="H166" s="4">
-        <v>111.8246</v>
+        <v>111.8542</v>
       </c>
       <c r="I166" s="4">
-        <v>109.8731</v>
+        <v>109.8802</v>
       </c>
       <c r="J166" s="4">
-        <v>111.1905</v>
+        <v>111.1579</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
@@ -5577,25 +5577,25 @@
         <v>109.9300</v>
       </c>
       <c r="D167" s="4">
-        <v>110.3620</v>
+        <v>110.3400</v>
       </c>
       <c r="E167" s="4">
-        <v>110.6767</v>
+        <v>110.6717</v>
       </c>
       <c r="F167" s="4">
-        <v>111.0576</v>
+        <v>111.0729</v>
       </c>
       <c r="G167" s="4">
-        <v>111.4653</v>
+        <v>111.5073</v>
       </c>
       <c r="H167" s="4">
-        <v>111.9862</v>
+        <v>112.0300</v>
       </c>
       <c r="I167" s="4">
-        <v>110.9037</v>
+        <v>110.9129</v>
       </c>
       <c r="J167" s="4">
-        <v>112.6276</v>
+        <v>112.7004</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
@@ -5609,25 +5609,25 @@
         <v>110.1400</v>
       </c>
       <c r="D168" s="4">
-        <v>110.4814</v>
+        <v>110.4962</v>
       </c>
       <c r="E168" s="4">
-        <v>110.8797</v>
+        <v>110.8809</v>
       </c>
       <c r="F168" s="4">
-        <v>111.2843</v>
+        <v>111.3695</v>
       </c>
       <c r="G168" s="4">
-        <v>111.7222</v>
+        <v>111.8577</v>
       </c>
       <c r="H168" s="4">
-        <v>112.1502</v>
+        <v>112.3258</v>
       </c>
       <c r="I168" s="4">
-        <v>110.7449</v>
+        <v>110.7377</v>
       </c>
       <c r="J168" s="4">
-        <v>112.4361</v>
+        <v>112.5914</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
@@ -5638,28 +5638,28 @@
         <v>3.0000</v>
       </c>
       <c r="C169" s="4">
-        <v>110.4612</v>
+        <v>110.4600</v>
       </c>
       <c r="D169" s="4">
-        <v>110.8282</v>
+        <v>110.8346</v>
       </c>
       <c r="E169" s="4">
-        <v>111.1684</v>
+        <v>111.1500</v>
       </c>
       <c r="F169" s="4">
-        <v>111.5850</v>
+        <v>111.5891</v>
       </c>
       <c r="G169" s="4">
-        <v>111.9611</v>
+        <v>112.0511</v>
       </c>
       <c r="H169" s="4">
-        <v>112.3670</v>
+        <v>112.5000</v>
       </c>
       <c r="I169" s="4">
-        <v>110.6110</v>
+        <v>110.6066</v>
       </c>
       <c r="J169" s="4">
-        <v>112.0898</v>
+        <v>112.2106</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
@@ -5670,28 +5670,28 @@
         <v>4.0000</v>
       </c>
       <c r="C170" s="4">
-        <v>111.1086</v>
+        <v>111.1100</v>
       </c>
       <c r="D170" s="4">
-        <v>111.4275</v>
+        <v>111.5000</v>
       </c>
       <c r="E170" s="4">
-        <v>111.8598</v>
+        <v>111.8575</v>
       </c>
       <c r="F170" s="4">
-        <v>112.2575</v>
+        <v>112.3022</v>
       </c>
       <c r="G170" s="4">
-        <v>112.6933</v>
+        <v>112.7765</v>
       </c>
       <c r="H170" s="4">
-        <v>113.1016</v>
+        <v>113.1971</v>
       </c>
       <c r="I170" s="4">
-        <v>110.7840</v>
+        <v>110.7674</v>
       </c>
       <c r="J170" s="4">
-        <v>112.5016</v>
+        <v>112.5430</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
@@ -5702,28 +5702,28 @@
         <v>1.0000</v>
       </c>
       <c r="C171" s="4">
-        <v>111.1507</v>
+        <v>111.1500</v>
       </c>
       <c r="D171" s="4">
-        <v>111.5726</v>
+        <v>111.5900</v>
       </c>
       <c r="E171" s="4">
-        <v>111.9313</v>
+        <v>111.8900</v>
       </c>
       <c r="F171" s="4">
-        <v>112.3306</v>
+        <v>112.3651</v>
       </c>
       <c r="G171" s="4">
-        <v>112.7049</v>
+        <v>112.7700</v>
       </c>
       <c r="H171" s="4">
-        <v>113.1419</v>
+        <v>113.2675</v>
       </c>
       <c r="I171" s="4">
-        <v>112.0966</v>
+        <v>112.1140</v>
       </c>
       <c r="J171" s="4">
-        <v>113.8429</v>
+        <v>113.7957</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
@@ -5734,28 +5734,28 @@
         <v>2.0000</v>
       </c>
       <c r="C172" s="4">
-        <v>111.6905</v>
+        <v>111.6900</v>
       </c>
       <c r="D172" s="4">
-        <v>112.3033</v>
+        <v>112.2600</v>
       </c>
       <c r="E172" s="4">
-        <v>112.8041</v>
+        <v>112.8024</v>
       </c>
       <c r="F172" s="4">
-        <v>113.2153</v>
+        <v>113.1979</v>
       </c>
       <c r="G172" s="4">
-        <v>113.7246</v>
+        <v>113.7196</v>
       </c>
       <c r="H172" s="4">
-        <v>114.2366</v>
+        <v>114.2503</v>
       </c>
       <c r="I172" s="4">
-        <v>112.5190</v>
+        <v>112.5333</v>
       </c>
       <c r="J172" s="4">
-        <v>114.5375</v>
+        <v>114.4560</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
@@ -5766,28 +5766,28 @@
         <v>3.0000</v>
       </c>
       <c r="C173" s="4">
-        <v>113.0388</v>
+        <v>113.0400</v>
       </c>
       <c r="D173" s="4">
-        <v>113.4982</v>
+        <v>113.5704</v>
       </c>
       <c r="E173" s="4">
-        <v>113.9660</v>
+        <v>114.0322</v>
       </c>
       <c r="F173" s="4">
-        <v>114.5042</v>
+        <v>114.5559</v>
       </c>
       <c r="G173" s="4">
-        <v>114.9861</v>
+        <v>115.1096</v>
       </c>
       <c r="H173" s="4">
-        <v>115.4906</v>
+        <v>115.7139</v>
       </c>
       <c r="I173" s="4">
-        <v>113.2568</v>
+        <v>113.2703</v>
       </c>
       <c r="J173" s="4">
-        <v>115.3182</v>
+        <v>115.6600</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
@@ -5798,28 +5798,28 @@
         <v>4.0000</v>
       </c>
       <c r="C174" s="4">
-        <v>113.7988</v>
+        <v>113.8000</v>
       </c>
       <c r="D174" s="4">
-        <v>114.3104</v>
+        <v>114.3037</v>
       </c>
       <c r="E174" s="4">
-        <v>114.8492</v>
+        <v>114.8520</v>
       </c>
       <c r="F174" s="4">
-        <v>115.3340</v>
+        <v>115.4000</v>
       </c>
       <c r="G174" s="4">
-        <v>115.8628</v>
+        <v>115.8148</v>
       </c>
       <c r="H174" s="4">
-        <v>116.4136</v>
+        <v>116.5100</v>
       </c>
       <c r="I174" s="4">
-        <v>113.4020</v>
+        <v>113.4000</v>
       </c>
       <c r="J174" s="4">
-        <v>115.6103</v>
+        <v>115.6000</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
@@ -5830,28 +5830,28 @@
         <v>1.0000</v>
       </c>
       <c r="C175" s="4">
-        <v>113.9061</v>
+        <v>113.9400</v>
       </c>
       <c r="D175" s="4">
-        <v>114.4152</v>
+        <v>114.4000</v>
       </c>
       <c r="E175" s="4">
-        <v>114.8944</v>
+        <v>114.8615</v>
       </c>
       <c r="F175" s="4">
-        <v>115.4589</v>
+        <v>115.4511</v>
       </c>
       <c r="G175" s="4">
-        <v>115.9647</v>
+        <v>115.9022</v>
       </c>
       <c r="H175" s="4">
-        <v>116.5247</v>
+        <v>116.4000</v>
       </c>
       <c r="I175" s="4">
-        <v>115.2079</v>
+        <v>115.1549</v>
       </c>
       <c r="J175" s="4">
-        <v>117.4859</v>
+        <v>117.4023</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
@@ -5862,28 +5862,28 @@
         <v>2.0000</v>
       </c>
       <c r="C176" s="4">
-        <v>114.4906</v>
+        <v>114.4900</v>
       </c>
       <c r="D176" s="4">
-        <v>114.9742</v>
+        <v>115.0018</v>
       </c>
       <c r="E176" s="4">
-        <v>115.5107</v>
+        <v>115.5855</v>
       </c>
       <c r="F176" s="4">
-        <v>116.0510</v>
+        <v>116.0606</v>
       </c>
       <c r="G176" s="4">
-        <v>116.6148</v>
+        <v>116.6780</v>
       </c>
       <c r="H176" s="4">
-        <v>117.1471</v>
+        <v>117.2300</v>
       </c>
       <c r="I176" s="4">
-        <v>115.2865</v>
+        <v>115.2975</v>
       </c>
       <c r="J176" s="4">
-        <v>117.5426</v>
+        <v>117.6027</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
@@ -5897,25 +5897,25 @@
         <v>115.0500</v>
       </c>
       <c r="D177" s="4">
-        <v>115.5871</v>
+        <v>115.5369</v>
       </c>
       <c r="E177" s="4">
-        <v>116.1064</v>
+        <v>116.0854</v>
       </c>
       <c r="F177" s="4">
-        <v>116.6667</v>
+        <v>116.5997</v>
       </c>
       <c r="G177" s="4">
-        <v>117.2269</v>
+        <v>117.0960</v>
       </c>
       <c r="H177" s="4">
-        <v>117.8737</v>
+        <v>117.6845</v>
       </c>
       <c r="I177" s="4">
-        <v>115.3201</v>
+        <v>115.3000</v>
       </c>
       <c r="J177" s="4">
-        <v>117.4017</v>
+        <v>117.4057</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
@@ -5929,25 +5929,25 @@
         <v>115.8600</v>
       </c>
       <c r="D178" s="4">
-        <v>116.3414</v>
+        <v>116.3569</v>
       </c>
       <c r="E178" s="4">
-        <v>116.8637</v>
+        <v>116.8694</v>
       </c>
       <c r="F178" s="4">
-        <v>117.4130</v>
+        <v>117.4370</v>
       </c>
       <c r="G178" s="4">
-        <v>118.0584</v>
+        <v>118.0500</v>
       </c>
       <c r="H178" s="4">
-        <v>118.6353</v>
+        <v>118.6762</v>
       </c>
       <c r="I178" s="4">
-        <v>115.4779</v>
+        <v>115.4648</v>
       </c>
       <c r="J178" s="4">
-        <v>117.7529</v>
+        <v>117.7189</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
@@ -5958,28 +5958,28 @@
         <v>1.0000</v>
       </c>
       <c r="C179" s="4">
-        <v>115.9786</v>
+        <v>115.9800</v>
       </c>
       <c r="D179" s="4">
-        <v>116.4711</v>
+        <v>116.4738</v>
       </c>
       <c r="E179" s="4">
-        <v>117.0328</v>
+        <v>117.0172</v>
       </c>
       <c r="F179" s="4">
-        <v>117.6235</v>
+        <v>117.6282</v>
       </c>
       <c r="G179" s="4">
-        <v>118.1534</v>
+        <v>118.1390</v>
       </c>
       <c r="H179" s="4">
-        <v>118.7170</v>
+        <v>118.7175</v>
       </c>
       <c r="I179" s="4">
-        <v>117.3407</v>
+        <v>117.3211</v>
       </c>
       <c r="J179" s="4">
-        <v>119.6363</v>
+        <v>119.7921</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
@@ -5993,25 +5993,25 @@
         <v>116.4200</v>
       </c>
       <c r="D180" s="4">
-        <v>116.8721</v>
+        <v>116.9113</v>
       </c>
       <c r="E180" s="4">
-        <v>117.4154</v>
+        <v>117.4116</v>
       </c>
       <c r="F180" s="4">
-        <v>117.9279</v>
+        <v>117.9707</v>
       </c>
       <c r="G180" s="4">
-        <v>118.4745</v>
+        <v>118.5607</v>
       </c>
       <c r="H180" s="4">
-        <v>119.0131</v>
+        <v>119.0956</v>
       </c>
       <c r="I180" s="4">
-        <v>117.1689</v>
+        <v>117.1900</v>
       </c>
       <c r="J180" s="4">
-        <v>119.3046</v>
+        <v>119.4444</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
@@ -6022,28 +6022,28 @@
         <v>3.0000</v>
       </c>
       <c r="C181" s="4">
-        <v>106.2282</v>
+        <v>106.1900</v>
       </c>
       <c r="D181" s="4">
-        <v>106.7054</v>
+        <v>106.6385</v>
       </c>
       <c r="E181" s="4">
-        <v>107.1420</v>
+        <v>107.1150</v>
       </c>
       <c r="F181" s="4">
-        <v>107.6140</v>
+        <v>107.6194</v>
       </c>
       <c r="G181" s="4">
-        <v>108.0615</v>
+        <v>108.0400</v>
       </c>
       <c r="H181" s="4">
-        <v>108.6083</v>
+        <v>108.5720</v>
       </c>
       <c r="I181" s="4">
-        <v>106.5370</v>
+        <v>106.5000</v>
       </c>
       <c r="J181" s="4">
-        <v>108.3296</v>
+        <v>108.3424</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
@@ -6054,28 +6054,28 @@
         <v>4.0000</v>
       </c>
       <c r="C182" s="4">
-        <v>106.6698</v>
+        <v>106.6700</v>
       </c>
       <c r="D182" s="4">
-        <v>107.1900</v>
+        <v>107.1205</v>
       </c>
       <c r="E182" s="4">
-        <v>107.6549</v>
+        <v>107.5729</v>
       </c>
       <c r="F182" s="4">
-        <v>108.1139</v>
+        <v>108.0476</v>
       </c>
       <c r="G182" s="4">
-        <v>108.6148</v>
+        <v>108.5246</v>
       </c>
       <c r="H182" s="4">
-        <v>109.1312</v>
+        <v>109.0558</v>
       </c>
       <c r="I182" s="4">
-        <v>106.5430</v>
+        <v>106.5000</v>
       </c>
       <c r="J182" s="4">
-        <v>108.3780</v>
+        <v>108.2905</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
@@ -6089,25 +6089,25 @@
         <v>107.0200</v>
       </c>
       <c r="D183" s="4">
-        <v>107.5143</v>
+        <v>107.4832</v>
       </c>
       <c r="E183" s="4">
-        <v>107.9454</v>
+        <v>107.9103</v>
       </c>
       <c r="F183" s="4">
-        <v>108.4491</v>
+        <v>108.4091</v>
       </c>
       <c r="G183" s="4">
-        <v>108.9282</v>
+        <v>108.9074</v>
       </c>
       <c r="H183" s="4">
-        <v>109.4454</v>
+        <v>109.4600</v>
       </c>
       <c r="I183" s="4">
-        <v>108.2222</v>
+        <v>108.1735</v>
       </c>
       <c r="J183" s="4">
-        <v>110.2665</v>
+        <v>110.3085</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
@@ -6118,28 +6118,28 @@
         <v>2.0000</v>
       </c>
       <c r="C184" s="4">
-        <v>107.4524</v>
+        <v>107.4500</v>
       </c>
       <c r="D184" s="4">
-        <v>107.9055</v>
+        <v>107.8772</v>
       </c>
       <c r="E184" s="4">
-        <v>108.3841</v>
+        <v>108.3460</v>
       </c>
       <c r="F184" s="4">
-        <v>108.8692</v>
+        <v>108.8200</v>
       </c>
       <c r="G184" s="4">
-        <v>109.3560</v>
+        <v>109.3900</v>
       </c>
       <c r="H184" s="4">
-        <v>109.8378</v>
+        <v>109.9000</v>
       </c>
       <c r="I184" s="4">
-        <v>108.1769</v>
+        <v>108.1302</v>
       </c>
       <c r="J184" s="4">
-        <v>110.1591</v>
+        <v>110.2943</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
@@ -6150,28 +6150,28 @@
         <v>3.0000</v>
       </c>
       <c r="C185" s="4">
-        <v>108.2195</v>
+        <v>108.2200</v>
       </c>
       <c r="D185" s="4">
-        <v>108.6997</v>
+        <v>108.7019</v>
       </c>
       <c r="E185" s="4">
-        <v>109.2008</v>
+        <v>109.2108</v>
       </c>
       <c r="F185" s="4">
-        <v>109.7042</v>
+        <v>109.7449</v>
       </c>
       <c r="G185" s="4">
-        <v>110.2164</v>
+        <v>110.2932</v>
       </c>
       <c r="H185" s="4">
-        <v>110.7376</v>
+        <v>110.8390</v>
       </c>
       <c r="I185" s="4">
-        <v>108.4969</v>
+        <v>108.4721</v>
       </c>
       <c r="J185" s="4">
-        <v>110.4482</v>
+        <v>110.5853</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
@@ -6182,28 +6182,28 @@
         <v>4.0000</v>
       </c>
       <c r="C186" s="4">
-        <v>108.6052</v>
+        <v>108.6100</v>
       </c>
       <c r="D186" s="4">
-        <v>109.0666</v>
+        <v>109.0459</v>
       </c>
       <c r="E186" s="4">
-        <v>109.5329</v>
+        <v>109.5100</v>
       </c>
       <c r="F186" s="4">
-        <v>110.0595</v>
+        <v>110.0729</v>
       </c>
       <c r="G186" s="4">
-        <v>110.5526</v>
+        <v>110.5736</v>
       </c>
       <c r="H186" s="4">
-        <v>111.1189</v>
+        <v>111.0800</v>
       </c>
       <c r="I186" s="4">
-        <v>108.4010</v>
+        <v>108.4000</v>
       </c>
       <c r="J186" s="4">
-        <v>110.3191</v>
+        <v>110.3000</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
@@ -6214,28 +6214,28 @@
         <v>1.0000</v>
       </c>
       <c r="C187" s="4">
-        <v>108.6462</v>
+        <v>108.6400</v>
       </c>
       <c r="D187" s="4">
-        <v>108.8177</v>
+        <v>108.8113</v>
       </c>
       <c r="E187" s="4">
-        <v>109.2491</v>
+        <v>109.2485</v>
       </c>
       <c r="F187" s="4">
-        <v>109.7085</v>
+        <v>109.7646</v>
       </c>
       <c r="G187" s="4">
-        <v>110.1544</v>
+        <v>110.1876</v>
       </c>
       <c r="H187" s="4">
-        <v>110.6464</v>
+        <v>110.7380</v>
       </c>
       <c r="I187" s="4">
-        <v>109.4933</v>
+        <v>109.5330</v>
       </c>
       <c r="J187" s="4">
-        <v>111.4204</v>
+        <v>111.4714</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
@@ -6246,28 +6246,28 @@
         <v>2.0000</v>
       </c>
       <c r="C188" s="4">
-        <v>108.6675</v>
+        <v>108.6700</v>
       </c>
       <c r="D188" s="4">
-        <v>109.0746</v>
+        <v>109.0936</v>
       </c>
       <c r="E188" s="4">
-        <v>109.5429</v>
+        <v>109.5748</v>
       </c>
       <c r="F188" s="4">
-        <v>109.9792</v>
+        <v>110.0424</v>
       </c>
       <c r="G188" s="4">
-        <v>110.4276</v>
+        <v>110.5643</v>
       </c>
       <c r="H188" s="4">
-        <v>110.9243</v>
+        <v>111.0730</v>
       </c>
       <c r="I188" s="4">
-        <v>109.2967</v>
+        <v>109.3326</v>
       </c>
       <c r="J188" s="4">
-        <v>111.1766</v>
+        <v>111.3715</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
@@ -6278,28 +6278,28 @@
         <v>3.0000</v>
       </c>
       <c r="C189" s="4">
-        <v>109.6597</v>
+        <v>109.6600</v>
       </c>
       <c r="D189" s="4">
-        <v>110.1012</v>
+        <v>110.1374</v>
       </c>
       <c r="E189" s="4">
-        <v>110.5339</v>
+        <v>110.5765</v>
       </c>
       <c r="F189" s="4">
-        <v>111.0049</v>
+        <v>111.0710</v>
       </c>
       <c r="G189" s="4">
-        <v>111.5445</v>
+        <v>111.6040</v>
       </c>
       <c r="H189" s="4">
-        <v>112.0632</v>
+        <v>112.0820</v>
       </c>
       <c r="I189" s="4">
-        <v>109.8525</v>
+        <v>109.8856</v>
       </c>
       <c r="J189" s="4">
-        <v>111.7506</v>
+        <v>111.8300</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
@@ -6310,28 +6310,28 @@
         <v>4.0000</v>
       </c>
       <c r="C190" s="4">
-        <v>110.0192</v>
+        <v>110.0200</v>
       </c>
       <c r="D190" s="4">
-        <v>110.3623</v>
+        <v>110.4031</v>
       </c>
       <c r="E190" s="4">
-        <v>110.8302</v>
+        <v>110.8742</v>
       </c>
       <c r="F190" s="4">
-        <v>111.3582</v>
+        <v>111.4000</v>
       </c>
       <c r="G190" s="4">
-        <v>111.8494</v>
+        <v>111.9158</v>
       </c>
       <c r="H190" s="4">
-        <v>112.3514</v>
+        <v>112.4484</v>
       </c>
       <c r="I190" s="4">
-        <v>109.8199</v>
+        <v>109.8000</v>
       </c>
       <c r="J190" s="4">
-        <v>111.6409</v>
+        <v>111.6513</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
@@ -6342,28 +6342,28 @@
         <v>1.0000</v>
       </c>
       <c r="C191" s="4">
-        <v>110.2598</v>
+        <v>110.2600</v>
       </c>
       <c r="D191" s="4">
-        <v>110.5577</v>
+        <v>110.5616</v>
       </c>
       <c r="E191" s="4">
-        <v>111.0128</v>
+        <v>110.9978</v>
       </c>
       <c r="F191" s="4">
-        <v>111.4939</v>
+        <v>111.5063</v>
       </c>
       <c r="G191" s="4">
-        <v>111.9864</v>
+        <v>112.0220</v>
       </c>
       <c r="H191" s="4">
-        <v>112.5026</v>
+        <v>112.5611</v>
       </c>
       <c r="I191" s="4">
-        <v>111.2778</v>
+        <v>111.2629</v>
       </c>
       <c r="J191" s="4">
-        <v>113.3762</v>
+        <v>113.4047</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
@@ -6374,28 +6374,28 @@
         <v>2.0000</v>
       </c>
       <c r="C192" s="4">
-        <v>110.4897</v>
+        <v>110.4900</v>
       </c>
       <c r="D192" s="4">
-        <v>110.9119</v>
+        <v>110.9065</v>
       </c>
       <c r="E192" s="4">
-        <v>111.3638</v>
+        <v>111.3602</v>
       </c>
       <c r="F192" s="4">
-        <v>111.8776</v>
+        <v>111.8654</v>
       </c>
       <c r="G192" s="4">
-        <v>112.3978</v>
+        <v>112.4004</v>
       </c>
       <c r="H192" s="4">
-        <v>112.9485</v>
+        <v>112.9790</v>
       </c>
       <c r="I192" s="4">
-        <v>111.1714</v>
+        <v>111.2036</v>
       </c>
       <c r="J192" s="4">
-        <v>113.2609</v>
+        <v>113.2601</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
@@ -6409,25 +6409,25 @@
         <v>111.2400</v>
       </c>
       <c r="D193" s="4">
-        <v>111.6679</v>
+        <v>111.6900</v>
       </c>
       <c r="E193" s="4">
-        <v>112.1891</v>
+        <v>112.1951</v>
       </c>
       <c r="F193" s="4">
-        <v>112.6991</v>
+        <v>112.7000</v>
       </c>
       <c r="G193" s="4">
-        <v>113.2915</v>
+        <v>113.2880</v>
       </c>
       <c r="H193" s="4">
-        <v>113.8533</v>
+        <v>113.8000</v>
       </c>
       <c r="I193" s="4">
-        <v>111.4336</v>
+        <v>111.4300</v>
       </c>
       <c r="J193" s="4">
-        <v>113.5622</v>
+        <v>113.5472</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
@@ -6438,28 +6438,28 @@
         <v>4.0000</v>
       </c>
       <c r="C194" s="4">
-        <v>111.6894</v>
+        <v>111.6900</v>
       </c>
       <c r="D194" s="4">
-        <v>112.2110</v>
+        <v>112.2001</v>
       </c>
       <c r="E194" s="4">
-        <v>112.7271</v>
+        <v>112.7212</v>
       </c>
       <c r="F194" s="4">
-        <v>113.2868</v>
+        <v>113.2700</v>
       </c>
       <c r="G194" s="4">
-        <v>113.8306</v>
+        <v>113.8160</v>
       </c>
       <c r="H194" s="4">
-        <v>114.3940</v>
+        <v>114.3769</v>
       </c>
       <c r="I194" s="4">
-        <v>111.4808</v>
+        <v>111.4419</v>
       </c>
       <c r="J194" s="4">
-        <v>113.5880</v>
+        <v>113.5524</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
@@ -6470,28 +6470,28 @@
         <v>1.0000</v>
       </c>
       <c r="C195" s="4">
-        <v>112.2399</v>
+        <v>112.2400</v>
       </c>
       <c r="D195" s="4">
-        <v>112.7772</v>
+        <v>112.8216</v>
       </c>
       <c r="E195" s="4">
-        <v>113.3726</v>
+        <v>113.4000</v>
       </c>
       <c r="F195" s="4">
-        <v>113.9464</v>
+        <v>113.9713</v>
       </c>
       <c r="G195" s="4">
-        <v>114.6280</v>
+        <v>114.6149</v>
       </c>
       <c r="H195" s="4">
-        <v>115.2307</v>
+        <v>115.1937</v>
       </c>
       <c r="I195" s="4">
-        <v>113.6696</v>
+        <v>113.6894</v>
       </c>
       <c r="J195" s="4">
-        <v>116.1207</v>
+        <v>116.1771</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
@@ -6502,28 +6502,28 @@
         <v>2.0000</v>
       </c>
       <c r="C196" s="4">
-        <v>112.8695</v>
+        <v>112.8700</v>
       </c>
       <c r="D196" s="4">
-        <v>113.3663</v>
+        <v>113.3745</v>
       </c>
       <c r="E196" s="4">
-        <v>113.9369</v>
+        <v>113.9286</v>
       </c>
       <c r="F196" s="4">
-        <v>114.5234</v>
+        <v>114.5186</v>
       </c>
       <c r="G196" s="4">
-        <v>115.1316</v>
+        <v>115.0546</v>
       </c>
       <c r="H196" s="4">
-        <v>115.7547</v>
+        <v>115.6536</v>
       </c>
       <c r="I196" s="4">
-        <v>113.6696</v>
+        <v>113.6708</v>
       </c>
       <c r="J196" s="4">
-        <v>116.0616</v>
+        <v>116.0028</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
@@ -6534,28 +6534,28 @@
         <v>3.0000</v>
       </c>
       <c r="C197" s="4">
-        <v>113.0385</v>
+        <v>113.0400</v>
       </c>
       <c r="D197" s="4">
-        <v>113.5008</v>
+        <v>113.4929</v>
       </c>
       <c r="E197" s="4">
-        <v>114.0436</v>
+        <v>114.0246</v>
       </c>
       <c r="F197" s="4">
-        <v>114.6020</v>
+        <v>114.6000</v>
       </c>
       <c r="G197" s="4">
-        <v>115.1685</v>
+        <v>115.1496</v>
       </c>
       <c r="H197" s="4">
-        <v>115.7408</v>
+        <v>115.6982</v>
       </c>
       <c r="I197" s="4">
-        <v>113.3153</v>
+        <v>113.3141</v>
       </c>
       <c r="J197" s="4">
-        <v>115.4078</v>
+        <v>115.4263</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
@@ -6566,28 +6566,28 @@
         <v>4.0000</v>
       </c>
       <c r="C198" s="4">
-        <v>113.6494</v>
+        <v>113.6500</v>
       </c>
       <c r="D198" s="4">
-        <v>114.1632</v>
+        <v>114.1592</v>
       </c>
       <c r="E198" s="4">
-        <v>114.7148</v>
+        <v>114.7000</v>
       </c>
       <c r="F198" s="4">
-        <v>115.2533</v>
+        <v>115.2374</v>
       </c>
       <c r="G198" s="4">
-        <v>115.8216</v>
+        <v>115.8367</v>
       </c>
       <c r="H198" s="4">
-        <v>116.4041</v>
+        <v>116.4402</v>
       </c>
       <c r="I198" s="4">
-        <v>113.3863</v>
+        <v>113.4000</v>
       </c>
       <c r="J198" s="4">
-        <v>115.5299</v>
+        <v>115.5459</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
@@ -6601,25 +6601,25 @@
         <v>114.2900</v>
       </c>
       <c r="D199" s="4">
-        <v>114.8204</v>
+        <v>114.8572</v>
       </c>
       <c r="E199" s="4">
-        <v>115.3862</v>
+        <v>115.4358</v>
       </c>
       <c r="F199" s="4">
-        <v>115.9965</v>
+        <v>116.0129</v>
       </c>
       <c r="G199" s="4">
-        <v>116.6013</v>
+        <v>116.5930</v>
       </c>
       <c r="H199" s="4">
-        <v>117.2162</v>
+        <v>117.1963</v>
       </c>
       <c r="I199" s="4">
-        <v>115.7446</v>
+        <v>115.7259</v>
       </c>
       <c r="J199" s="4">
-        <v>118.2264</v>
+        <v>118.1589</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
@@ -6630,28 +6630,28 @@
         <v>2.0000</v>
       </c>
       <c r="C200" s="4">
-        <v>114.8492</v>
+        <v>114.8500</v>
       </c>
       <c r="D200" s="4">
-        <v>115.3951</v>
+        <v>115.4000</v>
       </c>
       <c r="E200" s="4">
-        <v>115.9825</v>
+        <v>115.9931</v>
       </c>
       <c r="F200" s="4">
-        <v>116.5915</v>
+        <v>116.5919</v>
       </c>
       <c r="G200" s="4">
-        <v>117.2284</v>
+        <v>117.2261</v>
       </c>
       <c r="H200" s="4">
-        <v>117.8615</v>
+        <v>117.8246</v>
       </c>
       <c r="I200" s="4">
-        <v>115.6896</v>
+        <v>115.6986</v>
       </c>
       <c r="J200" s="4">
-        <v>118.2191</v>
+        <v>118.1424</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
@@ -6665,25 +6665,25 @@
         <v>110.1700</v>
       </c>
       <c r="D201" s="4">
-        <v>110.7749</v>
+        <v>110.7981</v>
       </c>
       <c r="E201" s="4">
-        <v>111.3935</v>
+        <v>111.4267</v>
       </c>
       <c r="F201" s="4">
-        <v>112.0184</v>
+        <v>112.0272</v>
       </c>
       <c r="G201" s="4">
-        <v>112.6485</v>
+        <v>112.6488</v>
       </c>
       <c r="H201" s="4">
-        <v>113.2584</v>
+        <v>113.2632</v>
       </c>
       <c r="I201" s="4">
-        <v>110.4106</v>
+        <v>110.4132</v>
       </c>
       <c r="J201" s="4">
-        <v>112.9221</v>
+        <v>112.9057</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
@@ -6694,28 +6694,28 @@
         <v>4.0000</v>
       </c>
       <c r="C202" s="4">
-        <v>110.6304</v>
+        <v>110.6300</v>
       </c>
       <c r="D202" s="4">
-        <v>111.2267</v>
+        <v>111.2335</v>
       </c>
       <c r="E202" s="4">
-        <v>111.8701</v>
+        <v>111.8665</v>
       </c>
       <c r="F202" s="4">
-        <v>112.5049</v>
+        <v>112.4825</v>
       </c>
       <c r="G202" s="4">
-        <v>113.0948</v>
+        <v>113.0510</v>
       </c>
       <c r="H202" s="4">
-        <v>113.7138</v>
+        <v>113.6974</v>
       </c>
       <c r="I202" s="4">
-        <v>110.3544</v>
+        <v>110.3594</v>
       </c>
       <c r="J202" s="4">
-        <v>112.7987</v>
+        <v>112.7763</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
@@ -6726,28 +6726,28 @@
         <v>1.0000</v>
       </c>
       <c r="C203" s="4">
-        <v>111.1615</v>
+        <v>111.1600</v>
       </c>
       <c r="D203" s="4">
-        <v>111.6948</v>
+        <v>111.7000</v>
       </c>
       <c r="E203" s="4">
-        <v>112.3316</v>
+        <v>112.3211</v>
       </c>
       <c r="F203" s="4">
-        <v>112.9182</v>
+        <v>112.9119</v>
       </c>
       <c r="G203" s="4">
-        <v>113.5145</v>
+        <v>113.4876</v>
       </c>
       <c r="H203" s="4">
-        <v>114.1025</v>
+        <v>114.0500</v>
       </c>
       <c r="I203" s="4">
-        <v>112.6191</v>
+        <v>112.6000</v>
       </c>
       <c r="J203" s="4">
-        <v>114.9951</v>
+        <v>114.9350</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
@@ -6758,28 +6758,28 @@
         <v>2.0000</v>
       </c>
       <c r="C204" s="4">
-        <v>111.3796</v>
+        <v>111.3800</v>
       </c>
       <c r="D204" s="4">
-        <v>111.9912</v>
+        <v>112.0000</v>
       </c>
       <c r="E204" s="4">
-        <v>112.5479</v>
+        <v>112.5704</v>
       </c>
       <c r="F204" s="4">
-        <v>113.1155</v>
+        <v>113.1784</v>
       </c>
       <c r="G204" s="4">
-        <v>113.6582</v>
+        <v>113.6870</v>
       </c>
       <c r="H204" s="4">
-        <v>114.2474</v>
+        <v>114.2547</v>
       </c>
       <c r="I204" s="4">
-        <v>112.2597</v>
+        <v>112.3000</v>
       </c>
       <c r="J204" s="4">
-        <v>114.5051</v>
+        <v>114.5352</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
@@ -6790,28 +6790,28 @@
         <v>3.0000</v>
       </c>
       <c r="C205" s="4">
-        <v>112.1610</v>
+        <v>112.1600</v>
       </c>
       <c r="D205" s="4">
-        <v>112.7223</v>
+        <v>112.7000</v>
       </c>
       <c r="E205" s="4">
-        <v>113.2860</v>
+        <v>113.2462</v>
       </c>
       <c r="F205" s="4">
-        <v>113.8481</v>
+        <v>113.8032</v>
       </c>
       <c r="G205" s="4">
-        <v>114.4072</v>
+        <v>114.3579</v>
       </c>
       <c r="H205" s="4">
-        <v>114.9840</v>
+        <v>114.9299</v>
       </c>
       <c r="I205" s="4">
-        <v>112.4126</v>
+        <v>112.3980</v>
       </c>
       <c r="J205" s="4">
-        <v>114.6692</v>
+        <v>114.6089</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
@@ -6822,28 +6822,28 @@
         <v>4.0000</v>
       </c>
       <c r="C206" s="4">
-        <v>112.6395</v>
+        <v>112.6400</v>
       </c>
       <c r="D206" s="4">
-        <v>113.1465</v>
+        <v>113.1411</v>
       </c>
       <c r="E206" s="4">
-        <v>113.6922</v>
+        <v>113.6952</v>
       </c>
       <c r="F206" s="4">
-        <v>114.2848</v>
+        <v>114.2262</v>
       </c>
       <c r="G206" s="4">
-        <v>114.8479</v>
+        <v>114.7782</v>
       </c>
       <c r="H206" s="4">
-        <v>115.4217</v>
+        <v>115.3366</v>
       </c>
       <c r="I206" s="4">
-        <v>112.3723</v>
+        <v>112.3620</v>
       </c>
       <c r="J206" s="4">
-        <v>114.5762</v>
+        <v>114.4931</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
@@ -6854,28 +6854,28 @@
         <v>1.0000</v>
       </c>
       <c r="C207" s="4">
-        <v>113.0799</v>
+        <v>113.0800</v>
       </c>
       <c r="D207" s="4">
-        <v>113.5831</v>
+        <v>113.5799</v>
       </c>
       <c r="E207" s="4">
-        <v>114.1358</v>
+        <v>114.1000</v>
       </c>
       <c r="F207" s="4">
-        <v>114.6752</v>
+        <v>114.6359</v>
       </c>
       <c r="G207" s="4">
-        <v>115.2498</v>
+        <v>115.2000</v>
       </c>
       <c r="H207" s="4">
-        <v>115.8208</v>
+        <v>115.7684</v>
       </c>
       <c r="I207" s="4">
-        <v>114.4276</v>
+        <v>114.3792</v>
       </c>
       <c r="J207" s="4">
-        <v>116.7354</v>
+        <v>116.5744</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
@@ -6886,28 +6886,28 @@
         <v>2.0000</v>
       </c>
       <c r="C208" s="4">
-        <v>113.4010</v>
+        <v>113.4000</v>
       </c>
       <c r="D208" s="4">
-        <v>113.3699</v>
+        <v>113.5610</v>
       </c>
       <c r="E208" s="4">
-        <v>113.6600</v>
+        <v>113.6800</v>
       </c>
       <c r="F208" s="4">
-        <v>114.0534</v>
+        <v>114.0780</v>
       </c>
       <c r="G208" s="4">
-        <v>114.4999</v>
+        <v>114.5598</v>
       </c>
       <c r="H208" s="4">
-        <v>114.9680</v>
+        <v>115.1202</v>
       </c>
       <c r="I208" s="4">
-        <v>113.6301</v>
+        <v>113.6982</v>
       </c>
       <c r="J208" s="4">
-        <v>115.1827</v>
+        <v>115.3907</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
@@ -6918,28 +6918,28 @@
         <v>3.0000</v>
       </c>
       <c r="C209" s="4">
-        <v>112.8582</v>
+        <v>112.8600</v>
       </c>
       <c r="D209" s="4">
-        <v>113.3225</v>
+        <v>113.2809</v>
       </c>
       <c r="E209" s="4">
-        <v>113.7419</v>
+        <v>113.6452</v>
       </c>
       <c r="F209" s="4">
-        <v>114.1708</v>
+        <v>114.0991</v>
       </c>
       <c r="G209" s="4">
-        <v>114.6221</v>
+        <v>114.4964</v>
       </c>
       <c r="H209" s="4">
-        <v>115.1094</v>
+        <v>115.0000</v>
       </c>
       <c r="I209" s="4">
-        <v>113.3136</v>
+        <v>113.3000</v>
       </c>
       <c r="J209" s="4">
-        <v>114.9559</v>
+        <v>114.7918</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
@@ -6950,28 +6950,28 @@
         <v>4.0000</v>
       </c>
       <c r="C210" s="4">
-        <v>113.8597</v>
+        <v>113.8600</v>
       </c>
       <c r="D210" s="4">
-        <v>114.3316</v>
+        <v>114.3165</v>
       </c>
       <c r="E210" s="4">
-        <v>114.9002</v>
+        <v>114.8994</v>
       </c>
       <c r="F210" s="4">
-        <v>115.4615</v>
+        <v>115.4260</v>
       </c>
       <c r="G210" s="4">
-        <v>116.0242</v>
+        <v>115.9189</v>
       </c>
       <c r="H210" s="4">
-        <v>116.5944</v>
+        <v>116.4566</v>
       </c>
       <c r="I210" s="4">
-        <v>113.6296</v>
+        <v>113.6000</v>
       </c>
       <c r="J210" s="4">
-        <v>115.7690</v>
+        <v>115.6764</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
@@ -6982,28 +6982,28 @@
         <v>1.0000</v>
       </c>
       <c r="C211" s="4">
-        <v>114.4104</v>
+        <v>114.4200</v>
       </c>
       <c r="D211" s="4">
-        <v>115.0212</v>
+        <v>114.9842</v>
       </c>
       <c r="E211" s="4">
-        <v>115.6246</v>
+        <v>115.5302</v>
       </c>
       <c r="F211" s="4">
-        <v>116.2706</v>
+        <v>116.0717</v>
       </c>
       <c r="G211" s="4">
-        <v>116.8920</v>
+        <v>116.6593</v>
       </c>
       <c r="H211" s="4">
-        <v>117.5327</v>
+        <v>117.2301</v>
       </c>
       <c r="I211" s="4">
-        <v>115.9167</v>
+        <v>115.7788</v>
       </c>
       <c r="J211" s="4">
-        <v>118.0877</v>
+        <v>118.1226</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
@@ -7014,28 +7014,28 @@
         <v>2.0000</v>
       </c>
       <c r="C212" s="4">
-        <v>115.5461</v>
+        <v>115.5600</v>
       </c>
       <c r="D212" s="4">
-        <v>116.3009</v>
+        <v>116.3323</v>
       </c>
       <c r="E212" s="4">
-        <v>116.9986</v>
+        <v>117.0444</v>
       </c>
       <c r="F212" s="4">
-        <v>117.6669</v>
+        <v>117.7200</v>
       </c>
       <c r="G212" s="4">
-        <v>118.3750</v>
+        <v>118.4150</v>
       </c>
       <c r="H212" s="4">
-        <v>119.0437</v>
+        <v>119.0185</v>
       </c>
       <c r="I212" s="4">
-        <v>116.6519</v>
+        <v>116.6703</v>
       </c>
       <c r="J212" s="4">
-        <v>119.3599</v>
+        <v>119.3343</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
@@ -7046,28 +7046,28 @@
         <v>3.0000</v>
       </c>
       <c r="C213" s="4">
-        <v>117.5113</v>
+        <v>117.5200</v>
       </c>
       <c r="D213" s="4">
-        <v>118.3974</v>
+        <v>118.6199</v>
       </c>
       <c r="E213" s="4">
-        <v>119.2160</v>
+        <v>119.3190</v>
       </c>
       <c r="F213" s="4">
-        <v>119.9609</v>
+        <v>119.9497</v>
       </c>
       <c r="G213" s="4">
-        <v>120.6469</v>
+        <v>120.5897</v>
       </c>
       <c r="H213" s="4">
-        <v>121.0836</v>
+        <v>121.2902</v>
       </c>
       <c r="I213" s="4">
-        <v>117.8087</v>
+        <v>117.7821</v>
       </c>
       <c r="J213" s="4">
-        <v>121.0287</v>
+        <v>120.9252</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
@@ -7078,28 +7078,28 @@
         <v>4.0000</v>
       </c>
       <c r="C214" s="4">
-        <v>119.1821</v>
+        <v>119.1900</v>
       </c>
       <c r="D214" s="4">
-        <v>120.1055</v>
+        <v>120.1893</v>
       </c>
       <c r="E214" s="4">
-        <v>120.9821</v>
+        <v>121.0309</v>
       </c>
       <c r="F214" s="4">
-        <v>121.7640</v>
+        <v>121.8384</v>
       </c>
       <c r="G214" s="4">
-        <v>122.4741</v>
+        <v>122.5612</v>
       </c>
       <c r="H214" s="4">
-        <v>123.1874</v>
+        <v>123.2792</v>
       </c>
       <c r="I214" s="4">
-        <v>118.1883</v>
+        <v>118.1759</v>
       </c>
       <c r="J214" s="4">
-        <v>122.1063</v>
+        <v>122.1500</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
@@ -7110,28 +7110,28 @@
         <v>1.0000</v>
       </c>
       <c r="C215" s="4">
-        <v>121.2797</v>
+        <v>121.2800</v>
       </c>
       <c r="D215" s="4">
-        <v>122.4205</v>
+        <v>122.5228</v>
       </c>
       <c r="E215" s="4">
-        <v>123.5231</v>
+        <v>123.5958</v>
       </c>
       <c r="F215" s="4">
-        <v>124.4519</v>
+        <v>124.3035</v>
       </c>
       <c r="G215" s="4">
-        <v>125.3462</v>
+        <v>125.0915</v>
       </c>
       <c r="H215" s="4">
-        <v>126.2514</v>
+        <v>125.9600</v>
       </c>
       <c r="I215" s="4">
-        <v>123.9591</v>
+        <v>123.9173</v>
       </c>
       <c r="J215" s="4">
-        <v>127.4565</v>
+        <v>126.8006</v>
       </c>
     </row>
     <row r="216" ht="13" customHeight="1"/>
